--- a/results/130622-V19.1-1307-2013-Fusion-Pairs.xlsx
+++ b/results/130622-V19.1-1307-2013-Fusion-Pairs.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20373"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0baef4825c0f17ed/Dokumente/Frisbee/Rankings/Turniere-berechnet/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\FpaExcelResultsParser\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F03B3807-0B1D-4096-84E7-4684D7CB002B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13275"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17775" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="V19.1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_FilterDatabase" localSheetId="0" hidden="1">V19.1!#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'V19.1'!#REF!</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,12 +28,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>HannemanK001</author>
   </authors>
   <commentList>
-    <comment ref="I2" authorId="0" shapeId="0">
+    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -45,7 +46,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I3" authorId="0" shapeId="0">
+    <comment ref="I3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -59,7 +60,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I4" authorId="0" shapeId="0">
+    <comment ref="I4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -73,7 +74,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I5" authorId="0" shapeId="0">
+    <comment ref="I5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -87,7 +88,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I6" authorId="0" shapeId="0">
+    <comment ref="I6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -100,7 +101,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I7" authorId="0" shapeId="0">
+    <comment ref="I7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -114,7 +115,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I8" authorId="0" shapeId="0">
+    <comment ref="I8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -127,7 +128,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L8" authorId="0" shapeId="0">
+    <comment ref="L8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -141,7 +142,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I9" authorId="0" shapeId="0">
+    <comment ref="I9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
@@ -155,7 +156,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L9" authorId="0" shapeId="0">
+    <comment ref="L9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -169,7 +170,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I11" authorId="0" shapeId="0">
+    <comment ref="I11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -184,7 +185,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I12" authorId="0" shapeId="0">
+    <comment ref="I12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -199,7 +200,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B15" authorId="0" shapeId="0">
+    <comment ref="B15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -213,7 +214,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B43" authorId="0" shapeId="0">
+    <comment ref="B43" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -227,7 +228,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F43" authorId="0" shapeId="0">
+    <comment ref="F43" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000F000000}">
       <text>
         <r>
           <rPr>
@@ -240,7 +241,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H43" authorId="0" shapeId="0">
+    <comment ref="H43" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000010000000}">
       <text>
         <r>
           <rPr>
@@ -264,7 +265,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B68" authorId="0" shapeId="0">
+    <comment ref="B68" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000011000000}">
       <text>
         <r>
           <rPr>
@@ -278,7 +279,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F68" authorId="0" shapeId="0">
+    <comment ref="F68" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000012000000}">
       <text>
         <r>
           <rPr>
@@ -291,7 +292,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H68" authorId="0" shapeId="0">
+    <comment ref="H68" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000013000000}">
       <text>
         <r>
           <rPr>
@@ -320,7 +321,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="94">
   <si>
     <t>Semifinals</t>
   </si>
@@ -599,12 +600,15 @@
   </si>
   <si>
     <t>Event:</t>
+  </si>
+  <si>
+    <t>Muciaccia, Costantino</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1593,10 +1597,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="2" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
@@ -1633,10 +1633,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
@@ -1673,10 +1669,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
@@ -1751,18 +1743,6 @@
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection hidden="1"/>
@@ -1789,18 +1769,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1948,18 +1916,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
       <protection hidden="1"/>
@@ -1988,110 +1944,14 @@
       <alignment vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
@@ -2118,143 +1978,287 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
       <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="61" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="5" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="4" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="61" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="61" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="4" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="5" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="61" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
       <protection hidden="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -2539,17 +2543,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor theme="9" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:AD126"/>
+  <dimension ref="A1:Y126"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Y94" sqref="Y94"/>
+      <selection activeCell="E124" sqref="E124"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="3.42578125" style="1" customWidth="1"/>
@@ -2577,325 +2581,325 @@
   <sheetData>
     <row r="1" spans="1:25" ht="12" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:25" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="187" t="s">
+      <c r="B2" s="125" t="s">
         <v>92</v>
       </c>
-      <c r="C2" s="186"/>
-      <c r="D2" s="186"/>
-      <c r="E2" s="186"/>
-      <c r="F2" s="186"/>
-      <c r="G2" s="186"/>
-      <c r="H2" s="186"/>
-      <c r="I2" s="185" t="s">
+      <c r="C2" s="124"/>
+      <c r="D2" s="124"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="124"/>
+      <c r="H2" s="124"/>
+      <c r="I2" s="126" t="s">
         <v>91</v>
       </c>
-      <c r="J2" s="184"/>
-      <c r="K2" s="184"/>
-      <c r="L2" s="184"/>
-      <c r="M2" s="183"/>
+      <c r="J2" s="127"/>
+      <c r="K2" s="127"/>
+      <c r="L2" s="127"/>
+      <c r="M2" s="128"/>
       <c r="N2" s="1"/>
-      <c r="T2" s="151"/>
+      <c r="T2" s="115"/>
     </row>
     <row r="3" spans="1:25" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="166" t="s">
+      <c r="B3" s="119" t="s">
         <v>90</v>
       </c>
-      <c r="C3" s="165"/>
-      <c r="D3" s="165"/>
-      <c r="E3" s="165"/>
-      <c r="F3" s="165"/>
-      <c r="G3" s="165"/>
-      <c r="H3" s="165"/>
-      <c r="I3" s="164" t="s">
+      <c r="C3" s="118"/>
+      <c r="D3" s="118"/>
+      <c r="E3" s="118"/>
+      <c r="F3" s="118"/>
+      <c r="G3" s="118"/>
+      <c r="H3" s="118"/>
+      <c r="I3" s="129" t="s">
         <v>89</v>
       </c>
-      <c r="J3" s="182"/>
-      <c r="K3" s="182"/>
-      <c r="L3" s="182"/>
-      <c r="M3" s="181"/>
+      <c r="J3" s="130"/>
+      <c r="K3" s="130"/>
+      <c r="L3" s="130"/>
+      <c r="M3" s="131"/>
       <c r="N3" s="1"/>
-      <c r="T3" s="151" t="s">
+      <c r="T3" s="115" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="172" t="s">
+      <c r="B4" s="121" t="s">
         <v>87</v>
       </c>
-      <c r="C4" s="171"/>
-      <c r="D4" s="171"/>
-      <c r="E4" s="171"/>
-      <c r="F4" s="171"/>
-      <c r="G4" s="171"/>
-      <c r="H4" s="171"/>
-      <c r="I4" s="180" t="s">
+      <c r="C4" s="120"/>
+      <c r="D4" s="120"/>
+      <c r="E4" s="120"/>
+      <c r="F4" s="120"/>
+      <c r="G4" s="120"/>
+      <c r="H4" s="120"/>
+      <c r="I4" s="132" t="s">
         <v>86</v>
       </c>
-      <c r="J4" s="168"/>
-      <c r="K4" s="168"/>
-      <c r="L4" s="168"/>
-      <c r="M4" s="173"/>
+      <c r="J4" s="133"/>
+      <c r="K4" s="133"/>
+      <c r="L4" s="133"/>
+      <c r="M4" s="134"/>
       <c r="N4" s="1"/>
-      <c r="T4" s="151">
+      <c r="T4" s="115">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:25" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="166" t="s">
+      <c r="B5" s="119" t="s">
         <v>85</v>
       </c>
-      <c r="C5" s="165"/>
-      <c r="D5" s="165"/>
-      <c r="E5" s="165"/>
-      <c r="F5" s="165"/>
-      <c r="G5" s="165"/>
-      <c r="H5" s="165"/>
-      <c r="I5" s="164" t="s">
+      <c r="C5" s="118"/>
+      <c r="D5" s="118"/>
+      <c r="E5" s="118"/>
+      <c r="F5" s="118"/>
+      <c r="G5" s="118"/>
+      <c r="H5" s="118"/>
+      <c r="I5" s="129" t="s">
         <v>84</v>
       </c>
-      <c r="J5" s="163"/>
-      <c r="K5" s="163"/>
-      <c r="L5" s="163"/>
-      <c r="M5" s="162"/>
+      <c r="J5" s="135"/>
+      <c r="K5" s="135"/>
+      <c r="L5" s="135"/>
+      <c r="M5" s="136"/>
       <c r="N5" s="1"/>
-      <c r="T5" s="151"/>
+      <c r="T5" s="115"/>
     </row>
     <row r="6" spans="1:25" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="172" t="s">
+      <c r="B6" s="121" t="s">
         <v>83</v>
       </c>
-      <c r="C6" s="171"/>
-      <c r="D6" s="171"/>
-      <c r="E6" s="171"/>
-      <c r="F6" s="171"/>
-      <c r="G6" s="171"/>
-      <c r="H6" s="171"/>
-      <c r="I6" s="179">
+      <c r="C6" s="120"/>
+      <c r="D6" s="120"/>
+      <c r="E6" s="120"/>
+      <c r="F6" s="120"/>
+      <c r="G6" s="120"/>
+      <c r="H6" s="120"/>
+      <c r="I6" s="137">
         <v>43</v>
       </c>
-      <c r="J6" s="178"/>
-      <c r="K6" s="178"/>
-      <c r="L6" s="178"/>
-      <c r="M6" s="177"/>
+      <c r="J6" s="138"/>
+      <c r="K6" s="138"/>
+      <c r="L6" s="138"/>
+      <c r="M6" s="139"/>
       <c r="N6" s="1"/>
-      <c r="T6" s="151" t="s">
+      <c r="T6" s="115" t="s">
         <v>82</v>
       </c>
-      <c r="U6" s="176">
+      <c r="U6" s="123">
         <v>8</v>
       </c>
-      <c r="V6" s="176"/>
-      <c r="W6" s="175"/>
-      <c r="X6" s="175"/>
-      <c r="Y6" s="175"/>
+      <c r="V6" s="123"/>
+      <c r="W6" s="122"/>
+      <c r="X6" s="122"/>
+      <c r="Y6" s="122"/>
     </row>
     <row r="7" spans="1:25" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="166" t="s">
+      <c r="B7" s="119" t="s">
         <v>81</v>
       </c>
-      <c r="C7" s="165"/>
-      <c r="D7" s="165"/>
-      <c r="E7" s="165"/>
-      <c r="F7" s="165"/>
-      <c r="G7" s="165"/>
-      <c r="H7" s="165"/>
-      <c r="I7" s="174">
-        <v>1</v>
-      </c>
-      <c r="J7" s="163"/>
-      <c r="K7" s="163"/>
-      <c r="L7" s="163"/>
-      <c r="M7" s="162"/>
+      <c r="C7" s="118"/>
+      <c r="D7" s="118"/>
+      <c r="E7" s="118"/>
+      <c r="F7" s="118"/>
+      <c r="G7" s="118"/>
+      <c r="H7" s="118"/>
+      <c r="I7" s="140">
+        <v>1</v>
+      </c>
+      <c r="J7" s="135"/>
+      <c r="K7" s="135"/>
+      <c r="L7" s="135"/>
+      <c r="M7" s="136"/>
       <c r="N7" s="1"/>
-      <c r="T7" s="151"/>
+      <c r="T7" s="115"/>
     </row>
     <row r="8" spans="1:25" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="172" t="s">
+      <c r="B8" s="121" t="s">
         <v>80</v>
       </c>
-      <c r="C8" s="171"/>
-      <c r="D8" s="171"/>
-      <c r="E8" s="171"/>
-      <c r="F8" s="171"/>
-      <c r="G8" s="171"/>
-      <c r="H8" s="171"/>
-      <c r="I8" s="170" t="s">
+      <c r="C8" s="120"/>
+      <c r="D8" s="120"/>
+      <c r="E8" s="120"/>
+      <c r="F8" s="120"/>
+      <c r="G8" s="120"/>
+      <c r="H8" s="120"/>
+      <c r="I8" s="141" t="s">
         <v>30</v>
       </c>
-      <c r="J8" s="168"/>
-      <c r="K8" s="168"/>
-      <c r="L8" s="168" t="s">
+      <c r="J8" s="133"/>
+      <c r="K8" s="133"/>
+      <c r="L8" s="133" t="s">
         <v>79</v>
       </c>
-      <c r="M8" s="173"/>
+      <c r="M8" s="134"/>
       <c r="N8" s="1"/>
-      <c r="T8" s="151"/>
+      <c r="T8" s="115"/>
     </row>
     <row r="9" spans="1:25" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="166" t="s">
+      <c r="B9" s="119" t="s">
         <v>78</v>
       </c>
-      <c r="C9" s="165"/>
-      <c r="D9" s="165"/>
-      <c r="E9" s="165"/>
-      <c r="F9" s="165"/>
-      <c r="G9" s="165"/>
-      <c r="H9" s="165"/>
-      <c r="I9" s="164"/>
-      <c r="J9" s="163"/>
-      <c r="K9" s="163"/>
-      <c r="L9" s="163"/>
-      <c r="M9" s="162"/>
+      <c r="C9" s="118"/>
+      <c r="D9" s="118"/>
+      <c r="E9" s="118"/>
+      <c r="F9" s="118"/>
+      <c r="G9" s="118"/>
+      <c r="H9" s="118"/>
+      <c r="I9" s="129"/>
+      <c r="J9" s="135"/>
+      <c r="K9" s="135"/>
+      <c r="L9" s="135"/>
+      <c r="M9" s="136"/>
       <c r="N9" s="1"/>
-      <c r="T9" s="151"/>
+      <c r="T9" s="115"/>
     </row>
     <row r="10" spans="1:25" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="172" t="s">
+      <c r="B10" s="121" t="s">
         <v>77</v>
       </c>
-      <c r="C10" s="171"/>
-      <c r="D10" s="171"/>
-      <c r="E10" s="171"/>
-      <c r="F10" s="171"/>
-      <c r="G10" s="171"/>
-      <c r="H10" s="171"/>
-      <c r="I10" s="170"/>
-      <c r="J10" s="169"/>
-      <c r="K10" s="169"/>
-      <c r="L10" s="168"/>
-      <c r="M10" s="167"/>
+      <c r="C10" s="120"/>
+      <c r="D10" s="120"/>
+      <c r="E10" s="120"/>
+      <c r="F10" s="120"/>
+      <c r="G10" s="120"/>
+      <c r="H10" s="120"/>
+      <c r="I10" s="141"/>
+      <c r="J10" s="142"/>
+      <c r="K10" s="142"/>
+      <c r="L10" s="133"/>
+      <c r="M10" s="143"/>
       <c r="N10" s="1"/>
-      <c r="T10" s="151"/>
+      <c r="T10" s="115"/>
     </row>
     <row r="11" spans="1:25" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="166" t="s">
+      <c r="B11" s="119" t="s">
         <v>76</v>
       </c>
-      <c r="C11" s="165"/>
-      <c r="D11" s="165"/>
-      <c r="E11" s="165"/>
-      <c r="F11" s="165"/>
-      <c r="G11" s="165"/>
-      <c r="H11" s="165"/>
-      <c r="I11" s="164">
+      <c r="C11" s="118"/>
+      <c r="D11" s="118"/>
+      <c r="E11" s="118"/>
+      <c r="F11" s="118"/>
+      <c r="G11" s="118"/>
+      <c r="H11" s="118"/>
+      <c r="I11" s="129">
         <v>1307</v>
       </c>
-      <c r="J11" s="163"/>
-      <c r="K11" s="163"/>
-      <c r="L11" s="163"/>
-      <c r="M11" s="162"/>
+      <c r="J11" s="135"/>
+      <c r="K11" s="135"/>
+      <c r="L11" s="135"/>
+      <c r="M11" s="136"/>
       <c r="N11" s="1"/>
-      <c r="T11" s="151"/>
+      <c r="T11" s="115"/>
     </row>
     <row r="12" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="161" t="s">
+      <c r="B12" s="117" t="s">
         <v>75</v>
       </c>
-      <c r="C12" s="160"/>
-      <c r="D12" s="160"/>
-      <c r="E12" s="160"/>
-      <c r="F12" s="160"/>
-      <c r="G12" s="160"/>
-      <c r="H12" s="160"/>
-      <c r="I12" s="159">
+      <c r="C12" s="116"/>
+      <c r="D12" s="116"/>
+      <c r="E12" s="116"/>
+      <c r="F12" s="116"/>
+      <c r="G12" s="116"/>
+      <c r="H12" s="116"/>
+      <c r="I12" s="144">
         <v>1507</v>
       </c>
-      <c r="J12" s="158"/>
-      <c r="K12" s="158"/>
-      <c r="L12" s="158"/>
-      <c r="M12" s="157"/>
+      <c r="J12" s="145"/>
+      <c r="K12" s="145"/>
+      <c r="L12" s="145"/>
+      <c r="M12" s="146"/>
       <c r="N12" s="1"/>
-      <c r="T12" s="151"/>
+      <c r="T12" s="115"/>
     </row>
     <row r="13" spans="1:25" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="156"/>
-      <c r="C13" s="155"/>
-      <c r="D13" s="155"/>
-      <c r="E13" s="155"/>
-      <c r="F13" s="155"/>
-      <c r="G13" s="155"/>
-      <c r="H13" s="155"/>
-      <c r="I13" s="154"/>
-      <c r="J13" s="153"/>
-      <c r="K13" s="153"/>
-      <c r="L13" s="153"/>
-      <c r="M13" s="152"/>
+      <c r="B13" s="147"/>
+      <c r="C13" s="148"/>
+      <c r="D13" s="148"/>
+      <c r="E13" s="148"/>
+      <c r="F13" s="148"/>
+      <c r="G13" s="148"/>
+      <c r="H13" s="148"/>
+      <c r="I13" s="149"/>
+      <c r="J13" s="150"/>
+      <c r="K13" s="150"/>
+      <c r="L13" s="150"/>
+      <c r="M13" s="151"/>
       <c r="N13" s="1"/>
-      <c r="T13" s="151"/>
+      <c r="T13" s="115"/>
     </row>
     <row r="14" spans="1:25" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="P14" s="150"/>
-      <c r="Q14" s="150"/>
-      <c r="R14" s="150"/>
-    </row>
-    <row r="15" spans="1:25" s="60" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="76" t="s">
+      <c r="P14" s="114"/>
+      <c r="Q14" s="114"/>
+      <c r="R14" s="114"/>
+    </row>
+    <row r="15" spans="1:25" s="54" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="74"/>
-      <c r="D15" s="74"/>
-      <c r="E15" s="74"/>
-      <c r="F15" s="72" t="s">
+      <c r="C15" s="65"/>
+      <c r="D15" s="65"/>
+      <c r="E15" s="65"/>
+      <c r="F15" s="63" t="s">
         <v>70</v>
       </c>
-      <c r="G15" s="74"/>
-      <c r="H15" s="74"/>
-      <c r="I15" s="72"/>
-      <c r="J15" s="71"/>
-      <c r="K15" s="71"/>
-      <c r="L15" s="71"/>
-      <c r="M15" s="70"/>
-      <c r="N15" s="61"/>
-      <c r="P15" s="69"/>
-      <c r="Q15" s="68"/>
-      <c r="R15" s="67"/>
+      <c r="G15" s="65"/>
+      <c r="H15" s="65"/>
+      <c r="I15" s="63"/>
+      <c r="J15" s="62"/>
+      <c r="K15" s="62"/>
+      <c r="L15" s="62"/>
+      <c r="M15" s="61"/>
+      <c r="N15" s="55"/>
+      <c r="P15" s="152"/>
+      <c r="Q15" s="153"/>
+      <c r="R15" s="154"/>
       <c r="S15" s="4"/>
-      <c r="T15" s="149"/>
-      <c r="U15" s="149"/>
-      <c r="V15" s="149"/>
-      <c r="W15" s="117"/>
-      <c r="X15" s="117"/>
-      <c r="Y15" s="117"/>
+      <c r="T15" s="113"/>
+      <c r="U15" s="113"/>
+      <c r="V15" s="113"/>
+      <c r="W15" s="105"/>
+      <c r="X15" s="105"/>
+      <c r="Y15" s="105"/>
     </row>
     <row r="16" spans="1:25" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="147"/>
-      <c r="B16" s="98" t="s">
+      <c r="A16" s="111"/>
+      <c r="B16" s="89" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="116"/>
-      <c r="D16" s="116"/>
-      <c r="E16" s="115" t="s">
+      <c r="C16" s="104"/>
+      <c r="D16" s="104"/>
+      <c r="E16" s="103" t="s">
         <v>27</v>
       </c>
-      <c r="F16" s="97" t="s">
+      <c r="F16" s="88" t="s">
         <v>26</v>
       </c>
-      <c r="G16" s="97" t="s">
+      <c r="G16" s="88" t="s">
         <v>25</v>
       </c>
-      <c r="H16" s="114" t="s">
+      <c r="H16" s="102" t="s">
         <v>24</v>
       </c>
-      <c r="I16" s="53"/>
-      <c r="J16" s="113" t="s">
+      <c r="I16" s="50"/>
+      <c r="J16" s="101" t="s">
         <v>23</v>
       </c>
-      <c r="K16" s="112" t="s">
+      <c r="K16" s="100" t="s">
         <v>22</v>
       </c>
-      <c r="L16" s="112" t="s">
+      <c r="L16" s="100" t="s">
         <v>74</v>
       </c>
-      <c r="M16" s="111" t="s">
+      <c r="M16" s="99" t="s">
         <v>21</v>
       </c>
       <c r="N16" s="1"/>
-      <c r="P16" s="110" t="s">
+      <c r="P16" s="155" t="s">
         <v>20</v>
       </c>
-      <c r="Q16" s="109"/>
-      <c r="R16" s="108"/>
-      <c r="T16" s="148" t="s">
+      <c r="Q16" s="156"/>
+      <c r="R16" s="157"/>
+      <c r="T16" s="112" t="s">
         <v>73</v>
       </c>
       <c r="U16" s="3" t="s">
@@ -2903,28 +2907,28 @@
       </c>
     </row>
     <row r="17" spans="1:25" s="3" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="147"/>
-      <c r="B17" s="95"/>
-      <c r="C17" s="94"/>
-      <c r="D17" s="94"/>
-      <c r="E17" s="93"/>
-      <c r="F17" s="92"/>
-      <c r="G17" s="92"/>
-      <c r="H17" s="91"/>
-      <c r="I17" s="53"/>
-      <c r="J17" s="52"/>
-      <c r="K17" s="51"/>
-      <c r="L17" s="50"/>
-      <c r="M17" s="49"/>
+      <c r="A17" s="111"/>
+      <c r="B17" s="86"/>
+      <c r="C17" s="85"/>
+      <c r="D17" s="85"/>
+      <c r="E17" s="84"/>
+      <c r="F17" s="83"/>
+      <c r="G17" s="83"/>
+      <c r="H17" s="82"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="49"/>
+      <c r="K17" s="48"/>
+      <c r="L17" s="47"/>
+      <c r="M17" s="46"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
-      <c r="P17" s="90" t="s">
+      <c r="P17" s="81" t="s">
         <v>19</v>
       </c>
-      <c r="Q17" s="89" t="s">
+      <c r="Q17" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="R17" s="88" t="s">
+      <c r="R17" s="79" t="s">
         <v>17</v>
       </c>
       <c r="S17" s="4"/>
@@ -2937,49 +2941,49 @@
     </row>
     <row r="18" spans="1:25" s="3" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
-      <c r="B18" s="36">
-        <v>1</v>
-      </c>
-      <c r="C18" s="35">
-        <v>1</v>
-      </c>
-      <c r="D18" s="35">
-        <v>1</v>
-      </c>
-      <c r="E18" s="34" t="s">
+      <c r="B18" s="158">
+        <v>1</v>
+      </c>
+      <c r="C18" s="33">
+        <v>1</v>
+      </c>
+      <c r="D18" s="33">
+        <v>1</v>
+      </c>
+      <c r="E18" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="F18" s="33" t="s">
+      <c r="F18" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="G18" s="32">
+      <c r="G18" s="30">
         <v>10</v>
       </c>
-      <c r="H18" s="31">
+      <c r="H18" s="29">
         <v>7.5</v>
       </c>
       <c r="I18" s="8"/>
-      <c r="J18" s="30">
+      <c r="J18" s="28">
         <v>125</v>
       </c>
-      <c r="K18" s="42">
+      <c r="K18" s="39">
         <v>2.5</v>
       </c>
-      <c r="L18" s="41">
+      <c r="L18" s="38">
         <v>37</v>
       </c>
-      <c r="M18" s="29">
+      <c r="M18" s="27">
         <v>164.5</v>
       </c>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
-      <c r="P18" s="45" t="s">
+      <c r="P18" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="Q18" s="44">
+      <c r="Q18" s="41">
         <v>82.25</v>
       </c>
-      <c r="R18" s="43" t="s">
+      <c r="R18" s="40" t="s">
         <v>1</v>
       </c>
       <c r="S18" s="4" t="s">
@@ -2997,47 +3001,47 @@
     </row>
     <row r="19" spans="1:25" s="3" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="24">
-        <v>1</v>
-      </c>
-      <c r="D19" s="24">
-        <v>1</v>
-      </c>
-      <c r="E19" s="23" t="s">
+      <c r="B19" s="159"/>
+      <c r="C19" s="23">
+        <v>1</v>
+      </c>
+      <c r="D19" s="23">
+        <v>1</v>
+      </c>
+      <c r="E19" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="F19" s="22" t="s">
+      <c r="F19" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="G19" s="21">
+      <c r="G19" s="20">
         <v>28</v>
       </c>
-      <c r="H19" s="20">
+      <c r="H19" s="19">
         <v>2.5</v>
       </c>
       <c r="I19" s="8"/>
-      <c r="J19" s="19">
+      <c r="J19" s="18">
         <v>125</v>
       </c>
-      <c r="K19" s="40">
+      <c r="K19" s="37">
         <v>2.5</v>
       </c>
-      <c r="L19" s="39">
+      <c r="L19" s="36">
         <v>37</v>
       </c>
-      <c r="M19" s="18">
+      <c r="M19" s="17">
         <v>164.5</v>
       </c>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
-      <c r="P19" s="146" t="s">
+      <c r="P19" s="110" t="s">
         <v>53</v>
       </c>
-      <c r="Q19" s="145">
+      <c r="Q19" s="109">
         <v>82.25</v>
       </c>
-      <c r="R19" s="144" t="s">
+      <c r="R19" s="108" t="s">
         <v>1</v>
       </c>
       <c r="S19" s="4" t="s">
@@ -3055,7 +3059,7 @@
     </row>
     <row r="20" spans="1:25" s="3" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-      <c r="B20" s="14"/>
+      <c r="B20" s="160"/>
       <c r="C20" s="13">
         <v>1</v>
       </c>
@@ -3076,10 +3080,10 @@
       <c r="J20" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="K20" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="L20" s="37" t="s">
+      <c r="K20" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="L20" s="34" t="s">
         <v>1</v>
       </c>
       <c r="M20" s="6" t="s">
@@ -3087,13 +3091,13 @@
       </c>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
-      <c r="P20" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q20" s="44" t="s">
-        <v>1</v>
-      </c>
-      <c r="R20" s="43" t="s">
+      <c r="P20" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="R20" s="40" t="s">
         <v>1</v>
       </c>
       <c r="S20" s="4" t="s">
@@ -3111,49 +3115,49 @@
     </row>
     <row r="21" spans="1:25" s="3" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
-      <c r="B21" s="36">
+      <c r="B21" s="158">
         <v>2</v>
       </c>
-      <c r="C21" s="35">
+      <c r="C21" s="33">
         <v>2</v>
       </c>
-      <c r="D21" s="35">
+      <c r="D21" s="33">
         <v>2</v>
       </c>
-      <c r="E21" s="34" t="s">
+      <c r="E21" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="F21" s="33" t="s">
+      <c r="F21" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="G21" s="32">
+      <c r="G21" s="30">
         <v>4</v>
       </c>
-      <c r="H21" s="31">
+      <c r="H21" s="29">
         <v>10</v>
       </c>
       <c r="I21" s="8"/>
-      <c r="J21" s="30">
+      <c r="J21" s="28">
         <v>100</v>
       </c>
-      <c r="K21" s="42">
+      <c r="K21" s="39">
         <v>2.5</v>
       </c>
-      <c r="L21" s="41">
+      <c r="L21" s="38">
         <v>26</v>
       </c>
-      <c r="M21" s="29">
+      <c r="M21" s="27">
         <v>128.5</v>
       </c>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
-      <c r="P21" s="146" t="s">
+      <c r="P21" s="110" t="s">
         <v>40</v>
       </c>
-      <c r="Q21" s="145">
+      <c r="Q21" s="109">
         <v>64.25</v>
       </c>
-      <c r="R21" s="144" t="s">
+      <c r="R21" s="108" t="s">
         <v>1</v>
       </c>
       <c r="S21" s="4" t="s">
@@ -3171,47 +3175,47 @@
     </row>
     <row r="22" spans="1:25" s="3" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
-      <c r="B22" s="25"/>
-      <c r="C22" s="24">
+      <c r="B22" s="159"/>
+      <c r="C22" s="23">
         <v>2</v>
       </c>
-      <c r="D22" s="24">
+      <c r="D22" s="23">
         <v>2</v>
       </c>
-      <c r="E22" s="23" t="s">
+      <c r="E22" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="F22" s="22" t="s">
+      <c r="F22" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="G22" s="21">
+      <c r="G22" s="20">
         <v>53</v>
       </c>
-      <c r="H22" s="20">
+      <c r="H22" s="19">
         <v>1</v>
       </c>
       <c r="I22" s="8"/>
-      <c r="J22" s="19">
+      <c r="J22" s="18">
         <v>100</v>
       </c>
-      <c r="K22" s="40">
+      <c r="K22" s="37">
         <v>2.5</v>
       </c>
-      <c r="L22" s="39">
+      <c r="L22" s="36">
         <v>26</v>
       </c>
-      <c r="M22" s="18">
+      <c r="M22" s="17">
         <v>128.5</v>
       </c>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
-      <c r="P22" s="45" t="s">
+      <c r="P22" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="Q22" s="44">
+      <c r="Q22" s="41">
         <v>64.25</v>
       </c>
-      <c r="R22" s="43" t="s">
+      <c r="R22" s="40" t="s">
         <v>1</v>
       </c>
       <c r="S22" s="4" t="s">
@@ -3229,7 +3233,7 @@
     </row>
     <row r="23" spans="1:25" s="3" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="B23" s="14"/>
+      <c r="B23" s="160"/>
       <c r="C23" s="13">
         <v>2</v>
       </c>
@@ -3250,10 +3254,10 @@
       <c r="J23" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="K23" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="L23" s="37" t="s">
+      <c r="K23" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="L23" s="34" t="s">
         <v>1</v>
       </c>
       <c r="M23" s="6" t="s">
@@ -3261,13 +3265,13 @@
       </c>
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
-      <c r="P23" s="146" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q23" s="145" t="s">
-        <v>1</v>
-      </c>
-      <c r="R23" s="144" t="s">
+      <c r="P23" s="110" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="109" t="s">
+        <v>1</v>
+      </c>
+      <c r="R23" s="108" t="s">
         <v>1</v>
       </c>
       <c r="S23" s="4" t="s">
@@ -3285,49 +3289,49 @@
     </row>
     <row r="24" spans="1:25" s="3" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
-      <c r="B24" s="36">
+      <c r="B24" s="158">
         <v>3</v>
       </c>
-      <c r="C24" s="35">
+      <c r="C24" s="33">
         <v>3</v>
       </c>
-      <c r="D24" s="35">
+      <c r="D24" s="33">
         <v>3</v>
       </c>
-      <c r="E24" s="34" t="s">
+      <c r="E24" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="F24" s="33" t="s">
+      <c r="F24" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="G24" s="32">
+      <c r="G24" s="30">
         <v>85</v>
       </c>
-      <c r="H24" s="31">
+      <c r="H24" s="29">
         <v>1</v>
       </c>
       <c r="I24" s="8"/>
-      <c r="J24" s="30">
+      <c r="J24" s="28">
         <v>80</v>
       </c>
-      <c r="K24" s="42">
+      <c r="K24" s="39">
         <v>2.5</v>
       </c>
-      <c r="L24" s="41">
+      <c r="L24" s="38">
         <v>24</v>
       </c>
-      <c r="M24" s="29">
+      <c r="M24" s="27">
         <v>106.5</v>
       </c>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
-      <c r="P24" s="45" t="s">
+      <c r="P24" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="Q24" s="44">
+      <c r="Q24" s="41">
         <v>53.25</v>
       </c>
-      <c r="R24" s="43" t="s">
+      <c r="R24" s="40" t="s">
         <v>1</v>
       </c>
       <c r="S24" s="4" t="s">
@@ -3345,47 +3349,47 @@
     </row>
     <row r="25" spans="1:25" s="3" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
-      <c r="B25" s="25"/>
-      <c r="C25" s="24">
+      <c r="B25" s="159"/>
+      <c r="C25" s="23">
         <v>3</v>
       </c>
-      <c r="D25" s="24">
+      <c r="D25" s="23">
         <v>3</v>
       </c>
-      <c r="E25" s="23" t="s">
+      <c r="E25" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="F25" s="22" t="s">
+      <c r="F25" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="G25" s="21">
+      <c r="G25" s="20">
         <v>58</v>
       </c>
-      <c r="H25" s="20">
+      <c r="H25" s="19">
         <v>1</v>
       </c>
       <c r="I25" s="8"/>
-      <c r="J25" s="19">
+      <c r="J25" s="18">
         <v>80</v>
       </c>
-      <c r="K25" s="40">
+      <c r="K25" s="37">
         <v>2.5</v>
       </c>
-      <c r="L25" s="39">
+      <c r="L25" s="36">
         <v>24</v>
       </c>
-      <c r="M25" s="18">
+      <c r="M25" s="17">
         <v>106.5</v>
       </c>
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
-      <c r="P25" s="146" t="s">
+      <c r="P25" s="110" t="s">
         <v>15</v>
       </c>
-      <c r="Q25" s="145">
+      <c r="Q25" s="109">
         <v>53.25</v>
       </c>
-      <c r="R25" s="144" t="s">
+      <c r="R25" s="108" t="s">
         <v>1</v>
       </c>
       <c r="S25" s="4" t="s">
@@ -3403,7 +3407,7 @@
     </row>
     <row r="26" spans="1:25" s="3" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
-      <c r="B26" s="14"/>
+      <c r="B26" s="160"/>
       <c r="C26" s="13">
         <v>3</v>
       </c>
@@ -3424,10 +3428,10 @@
       <c r="J26" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="K26" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="L26" s="37" t="s">
+      <c r="K26" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="L26" s="34" t="s">
         <v>1</v>
       </c>
       <c r="M26" s="6" t="s">
@@ -3435,13 +3439,13 @@
       </c>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
-      <c r="P26" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q26" s="44" t="s">
-        <v>1</v>
-      </c>
-      <c r="R26" s="43" t="s">
+      <c r="P26" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="R26" s="40" t="s">
         <v>1</v>
       </c>
       <c r="S26" s="4" t="s">
@@ -3459,49 +3463,49 @@
     </row>
     <row r="27" spans="1:25" s="3" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
-      <c r="B27" s="36">
+      <c r="B27" s="158">
         <v>4</v>
       </c>
-      <c r="C27" s="35">
+      <c r="C27" s="33">
         <v>4</v>
       </c>
-      <c r="D27" s="35">
+      <c r="D27" s="33">
         <v>4</v>
       </c>
-      <c r="E27" s="34" t="s">
+      <c r="E27" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="F27" s="33" t="s">
+      <c r="F27" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="G27" s="32">
+      <c r="G27" s="30">
         <v>266</v>
       </c>
-      <c r="H27" s="31">
+      <c r="H27" s="29">
         <v>0</v>
       </c>
       <c r="I27" s="8"/>
-      <c r="J27" s="30">
+      <c r="J27" s="28">
         <v>70</v>
       </c>
-      <c r="K27" s="42">
+      <c r="K27" s="39">
         <v>2.5</v>
       </c>
-      <c r="L27" s="41">
+      <c r="L27" s="38">
         <v>23</v>
       </c>
-      <c r="M27" s="29">
+      <c r="M27" s="27">
         <v>95.5</v>
       </c>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
-      <c r="P27" s="146" t="s">
+      <c r="P27" s="110" t="s">
         <v>41</v>
       </c>
-      <c r="Q27" s="145">
+      <c r="Q27" s="109">
         <v>47.75</v>
       </c>
-      <c r="R27" s="144" t="s">
+      <c r="R27" s="108" t="s">
         <v>1</v>
       </c>
       <c r="S27" s="4" t="s">
@@ -3519,47 +3523,47 @@
     </row>
     <row r="28" spans="1:25" s="3" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
-      <c r="B28" s="25"/>
-      <c r="C28" s="24">
+      <c r="B28" s="159"/>
+      <c r="C28" s="23">
         <v>4</v>
       </c>
-      <c r="D28" s="24">
+      <c r="D28" s="23">
         <v>4</v>
       </c>
-      <c r="E28" s="23" t="s">
+      <c r="E28" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="F28" s="22" t="s">
+      <c r="F28" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="G28" s="21">
+      <c r="G28" s="20">
         <v>86</v>
       </c>
-      <c r="H28" s="20">
+      <c r="H28" s="19">
         <v>1</v>
       </c>
       <c r="I28" s="8"/>
-      <c r="J28" s="19">
+      <c r="J28" s="18">
         <v>70</v>
       </c>
-      <c r="K28" s="40">
+      <c r="K28" s="37">
         <v>2.5</v>
       </c>
-      <c r="L28" s="39">
+      <c r="L28" s="36">
         <v>23</v>
       </c>
-      <c r="M28" s="18">
+      <c r="M28" s="17">
         <v>95.5</v>
       </c>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
-      <c r="P28" s="45" t="s">
+      <c r="P28" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="Q28" s="44">
+      <c r="Q28" s="41">
         <v>47.75</v>
       </c>
-      <c r="R28" s="43" t="s">
+      <c r="R28" s="40" t="s">
         <v>1</v>
       </c>
       <c r="S28" s="4" t="s">
@@ -3577,7 +3581,7 @@
     </row>
     <row r="29" spans="1:25" s="3" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
-      <c r="B29" s="14"/>
+      <c r="B29" s="160"/>
       <c r="C29" s="13">
         <v>4</v>
       </c>
@@ -3598,10 +3602,10 @@
       <c r="J29" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="K29" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="L29" s="37" t="s">
+      <c r="K29" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="L29" s="34" t="s">
         <v>1</v>
       </c>
       <c r="M29" s="6" t="s">
@@ -3609,13 +3613,13 @@
       </c>
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
-      <c r="P29" s="146" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q29" s="145" t="s">
-        <v>1</v>
-      </c>
-      <c r="R29" s="144" t="s">
+      <c r="P29" s="110" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q29" s="109" t="s">
+        <v>1</v>
+      </c>
+      <c r="R29" s="108" t="s">
         <v>1</v>
       </c>
       <c r="S29" s="4" t="s">
@@ -3633,49 +3637,49 @@
     </row>
     <row r="30" spans="1:25" s="3" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
-      <c r="B30" s="36">
+      <c r="B30" s="158">
         <v>5</v>
       </c>
-      <c r="C30" s="35">
+      <c r="C30" s="33">
         <v>5</v>
       </c>
-      <c r="D30" s="35">
+      <c r="D30" s="33">
         <v>5</v>
       </c>
-      <c r="E30" s="34" t="s">
+      <c r="E30" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="F30" s="33" t="s">
+      <c r="F30" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="G30" s="32">
+      <c r="G30" s="30">
         <v>162</v>
       </c>
-      <c r="H30" s="31">
+      <c r="H30" s="29">
         <v>0.5</v>
       </c>
       <c r="I30" s="8"/>
-      <c r="J30" s="30">
+      <c r="J30" s="28">
         <v>60</v>
       </c>
-      <c r="K30" s="42">
+      <c r="K30" s="39">
         <v>2.5</v>
       </c>
-      <c r="L30" s="41">
+      <c r="L30" s="38">
         <v>22</v>
       </c>
-      <c r="M30" s="29">
+      <c r="M30" s="27">
         <v>84.5</v>
       </c>
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
-      <c r="P30" s="45" t="s">
+      <c r="P30" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="Q30" s="44">
+      <c r="Q30" s="41">
         <v>42.25</v>
       </c>
-      <c r="R30" s="43" t="s">
+      <c r="R30" s="40" t="s">
         <v>1</v>
       </c>
       <c r="S30" s="4" t="s">
@@ -3693,47 +3697,47 @@
     </row>
     <row r="31" spans="1:25" s="3" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
-      <c r="B31" s="25"/>
-      <c r="C31" s="24">
+      <c r="B31" s="159"/>
+      <c r="C31" s="23">
         <v>5</v>
       </c>
-      <c r="D31" s="24">
+      <c r="D31" s="23">
         <v>5</v>
       </c>
-      <c r="E31" s="23" t="s">
+      <c r="E31" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="F31" s="22" t="s">
+      <c r="F31" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="G31" s="21">
+      <c r="G31" s="20">
         <v>171</v>
       </c>
-      <c r="H31" s="20">
+      <c r="H31" s="19">
         <v>0.5</v>
       </c>
       <c r="I31" s="8"/>
-      <c r="J31" s="19">
+      <c r="J31" s="18">
         <v>60</v>
       </c>
-      <c r="K31" s="40">
+      <c r="K31" s="37">
         <v>2.5</v>
       </c>
-      <c r="L31" s="39">
+      <c r="L31" s="36">
         <v>22</v>
       </c>
-      <c r="M31" s="18">
+      <c r="M31" s="17">
         <v>84.5</v>
       </c>
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
-      <c r="P31" s="146" t="s">
+      <c r="P31" s="110" t="s">
         <v>51</v>
       </c>
-      <c r="Q31" s="145">
+      <c r="Q31" s="109">
         <v>42.25</v>
       </c>
-      <c r="R31" s="144" t="s">
+      <c r="R31" s="108" t="s">
         <v>1</v>
       </c>
       <c r="S31" s="4" t="s">
@@ -3751,7 +3755,7 @@
     </row>
     <row r="32" spans="1:25" s="3" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
-      <c r="B32" s="14"/>
+      <c r="B32" s="160"/>
       <c r="C32" s="13">
         <v>5</v>
       </c>
@@ -3772,10 +3776,10 @@
       <c r="J32" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="K32" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="L32" s="37" t="s">
+      <c r="K32" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="L32" s="34" t="s">
         <v>1</v>
       </c>
       <c r="M32" s="6" t="s">
@@ -3783,13 +3787,13 @@
       </c>
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
-      <c r="P32" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q32" s="44" t="s">
-        <v>1</v>
-      </c>
-      <c r="R32" s="43" t="s">
+      <c r="P32" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q32" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="R32" s="40" t="s">
         <v>1</v>
       </c>
       <c r="S32" s="4" t="s">
@@ -3807,49 +3811,49 @@
     </row>
     <row r="33" spans="1:25" s="3" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
-      <c r="B33" s="36">
+      <c r="B33" s="158">
         <v>6</v>
       </c>
-      <c r="C33" s="35">
+      <c r="C33" s="33">
         <v>6</v>
       </c>
-      <c r="D33" s="35">
+      <c r="D33" s="33">
         <v>6</v>
       </c>
-      <c r="E33" s="34" t="s">
+      <c r="E33" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="F33" s="33" t="s">
+      <c r="F33" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="G33" s="32">
+      <c r="G33" s="30">
         <v>90</v>
       </c>
-      <c r="H33" s="31">
+      <c r="H33" s="29">
         <v>1</v>
       </c>
       <c r="I33" s="8"/>
-      <c r="J33" s="30">
+      <c r="J33" s="28">
         <v>50</v>
       </c>
-      <c r="K33" s="42">
+      <c r="K33" s="39">
         <v>3</v>
       </c>
-      <c r="L33" s="41">
+      <c r="L33" s="38">
         <v>20</v>
       </c>
-      <c r="M33" s="29">
+      <c r="M33" s="27">
         <v>73</v>
       </c>
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
-      <c r="P33" s="146" t="s">
+      <c r="P33" s="110" t="s">
         <v>65</v>
       </c>
-      <c r="Q33" s="145">
+      <c r="Q33" s="109">
         <v>36.5</v>
       </c>
-      <c r="R33" s="144" t="s">
+      <c r="R33" s="108" t="s">
         <v>1</v>
       </c>
       <c r="S33" s="4" t="s">
@@ -3867,47 +3871,47 @@
     </row>
     <row r="34" spans="1:25" s="3" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
-      <c r="B34" s="25"/>
-      <c r="C34" s="24">
+      <c r="B34" s="159"/>
+      <c r="C34" s="23">
         <v>6</v>
       </c>
-      <c r="D34" s="24">
+      <c r="D34" s="23">
         <v>6</v>
       </c>
-      <c r="E34" s="23" t="s">
+      <c r="E34" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="F34" s="22" t="s">
+      <c r="F34" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="G34" s="21">
+      <c r="G34" s="20">
         <v>67</v>
       </c>
-      <c r="H34" s="20">
+      <c r="H34" s="19">
         <v>1</v>
       </c>
       <c r="I34" s="8"/>
-      <c r="J34" s="19">
+      <c r="J34" s="18">
         <v>50</v>
       </c>
-      <c r="K34" s="40">
+      <c r="K34" s="37">
         <v>3</v>
       </c>
-      <c r="L34" s="39">
+      <c r="L34" s="36">
         <v>20</v>
       </c>
-      <c r="M34" s="18">
+      <c r="M34" s="17">
         <v>73</v>
       </c>
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
-      <c r="P34" s="45" t="s">
+      <c r="P34" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="Q34" s="44">
+      <c r="Q34" s="41">
         <v>36.5</v>
       </c>
-      <c r="R34" s="43" t="s">
+      <c r="R34" s="40" t="s">
         <v>1</v>
       </c>
       <c r="S34" s="4" t="s">
@@ -3925,7 +3929,7 @@
     </row>
     <row r="35" spans="1:25" s="3" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
-      <c r="B35" s="14"/>
+      <c r="B35" s="160"/>
       <c r="C35" s="13">
         <v>6</v>
       </c>
@@ -3946,10 +3950,10 @@
       <c r="J35" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="K35" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="L35" s="37" t="s">
+      <c r="K35" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="L35" s="34" t="s">
         <v>1</v>
       </c>
       <c r="M35" s="6" t="s">
@@ -3957,13 +3961,13 @@
       </c>
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
-      <c r="P35" s="146" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q35" s="145" t="s">
-        <v>1</v>
-      </c>
-      <c r="R35" s="144" t="s">
+      <c r="P35" s="110" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q35" s="109" t="s">
+        <v>1</v>
+      </c>
+      <c r="R35" s="108" t="s">
         <v>1</v>
       </c>
       <c r="S35" s="4" t="s">
@@ -3981,49 +3985,49 @@
     </row>
     <row r="36" spans="1:25" s="3" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
-      <c r="B36" s="36">
+      <c r="B36" s="158">
         <v>7</v>
       </c>
-      <c r="C36" s="35">
+      <c r="C36" s="33">
         <v>7</v>
       </c>
-      <c r="D36" s="35">
+      <c r="D36" s="33">
         <v>7</v>
       </c>
-      <c r="E36" s="34" t="s">
+      <c r="E36" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="F36" s="33" t="s">
+      <c r="F36" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="G36" s="32">
+      <c r="G36" s="30">
         <v>13</v>
       </c>
-      <c r="H36" s="31">
+      <c r="H36" s="29">
         <v>5</v>
       </c>
       <c r="I36" s="8"/>
-      <c r="J36" s="30">
+      <c r="J36" s="28">
         <v>45</v>
       </c>
-      <c r="K36" s="42">
+      <c r="K36" s="39">
         <v>2.5</v>
       </c>
-      <c r="L36" s="41">
+      <c r="L36" s="38">
         <v>15</v>
       </c>
-      <c r="M36" s="29">
+      <c r="M36" s="27">
         <v>62.5</v>
       </c>
       <c r="N36" s="1"/>
       <c r="O36" s="1"/>
-      <c r="P36" s="45" t="s">
+      <c r="P36" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="Q36" s="44">
+      <c r="Q36" s="41">
         <v>31.25</v>
       </c>
-      <c r="R36" s="43" t="s">
+      <c r="R36" s="40" t="s">
         <v>1</v>
       </c>
       <c r="S36" s="4" t="s">
@@ -4041,47 +4045,47 @@
     </row>
     <row r="37" spans="1:25" s="3" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
-      <c r="B37" s="25"/>
-      <c r="C37" s="24">
+      <c r="B37" s="159"/>
+      <c r="C37" s="23">
         <v>7</v>
       </c>
-      <c r="D37" s="24">
+      <c r="D37" s="23">
         <v>7</v>
       </c>
-      <c r="E37" s="23" t="s">
+      <c r="E37" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F37" s="22" t="s">
+      <c r="F37" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="G37" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="H37" s="20" t="s">
+      <c r="G37" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="H37" s="19" t="s">
         <v>1</v>
       </c>
       <c r="I37" s="8"/>
-      <c r="J37" s="19">
+      <c r="J37" s="18">
         <v>45</v>
       </c>
-      <c r="K37" s="40">
+      <c r="K37" s="37">
         <v>2.5</v>
       </c>
-      <c r="L37" s="39">
+      <c r="L37" s="36">
         <v>15</v>
       </c>
-      <c r="M37" s="18">
+      <c r="M37" s="17">
         <v>62.5</v>
       </c>
       <c r="N37" s="1"/>
       <c r="O37" s="1"/>
-      <c r="P37" s="146" t="s">
+      <c r="P37" s="110" t="s">
         <v>13</v>
       </c>
-      <c r="Q37" s="145">
+      <c r="Q37" s="109">
         <v>31.25</v>
       </c>
-      <c r="R37" s="144" t="s">
+      <c r="R37" s="108" t="s">
         <v>1</v>
       </c>
       <c r="S37" s="4" t="s">
@@ -4099,7 +4103,7 @@
     </row>
     <row r="38" spans="1:25" s="3" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
-      <c r="B38" s="14"/>
+      <c r="B38" s="160"/>
       <c r="C38" s="13">
         <v>7</v>
       </c>
@@ -4120,10 +4124,10 @@
       <c r="J38" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="K38" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="L38" s="37" t="s">
+      <c r="K38" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="L38" s="34" t="s">
         <v>1</v>
       </c>
       <c r="M38" s="6" t="s">
@@ -4131,13 +4135,13 @@
       </c>
       <c r="N38" s="1"/>
       <c r="O38" s="1"/>
-      <c r="P38" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q38" s="44" t="s">
-        <v>1</v>
-      </c>
-      <c r="R38" s="43" t="s">
+      <c r="P38" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q38" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="R38" s="40" t="s">
         <v>1</v>
       </c>
       <c r="S38" s="4" t="s">
@@ -4155,49 +4159,49 @@
     </row>
     <row r="39" spans="1:25" s="3" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
-      <c r="B39" s="36">
+      <c r="B39" s="158">
         <v>8</v>
       </c>
-      <c r="C39" s="35">
+      <c r="C39" s="33">
         <v>8</v>
       </c>
-      <c r="D39" s="35">
+      <c r="D39" s="33">
         <v>8</v>
       </c>
-      <c r="E39" s="34" t="s">
+      <c r="E39" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="F39" s="33" t="s">
+      <c r="F39" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="G39" s="32">
+      <c r="G39" s="30">
         <v>18</v>
       </c>
-      <c r="H39" s="31">
+      <c r="H39" s="29">
         <v>5</v>
       </c>
       <c r="I39" s="8"/>
-      <c r="J39" s="30">
+      <c r="J39" s="28">
         <v>40</v>
       </c>
-      <c r="K39" s="42">
+      <c r="K39" s="39">
         <v>3</v>
       </c>
-      <c r="L39" s="41">
-        <v>0</v>
-      </c>
-      <c r="M39" s="29">
+      <c r="L39" s="38">
+        <v>0</v>
+      </c>
+      <c r="M39" s="27">
         <v>43</v>
       </c>
       <c r="N39" s="1"/>
       <c r="O39" s="1"/>
-      <c r="P39" s="146" t="s">
+      <c r="P39" s="110" t="s">
         <v>67</v>
       </c>
-      <c r="Q39" s="145">
+      <c r="Q39" s="109">
         <v>21.5</v>
       </c>
-      <c r="R39" s="144" t="s">
+      <c r="R39" s="108" t="s">
         <v>1</v>
       </c>
       <c r="S39" s="4" t="s">
@@ -4215,47 +4219,47 @@
     </row>
     <row r="40" spans="1:25" s="3" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1"/>
-      <c r="B40" s="25"/>
-      <c r="C40" s="24">
+      <c r="B40" s="159"/>
+      <c r="C40" s="23">
         <v>8</v>
       </c>
-      <c r="D40" s="24">
+      <c r="D40" s="23">
         <v>8</v>
       </c>
-      <c r="E40" s="23" t="s">
+      <c r="E40" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="F40" s="22" t="s">
+      <c r="F40" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="G40" s="21">
-        <v>1</v>
-      </c>
-      <c r="H40" s="20">
+      <c r="G40" s="20">
+        <v>1</v>
+      </c>
+      <c r="H40" s="19">
         <v>10</v>
       </c>
       <c r="I40" s="8"/>
-      <c r="J40" s="19">
+      <c r="J40" s="18">
         <v>40</v>
       </c>
-      <c r="K40" s="40">
+      <c r="K40" s="37">
         <v>3</v>
       </c>
-      <c r="L40" s="39">
-        <v>0</v>
-      </c>
-      <c r="M40" s="18">
+      <c r="L40" s="36">
+        <v>0</v>
+      </c>
+      <c r="M40" s="17">
         <v>43</v>
       </c>
       <c r="N40" s="1"/>
       <c r="O40" s="1"/>
-      <c r="P40" s="45" t="s">
+      <c r="P40" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="Q40" s="44">
+      <c r="Q40" s="41">
         <v>21.5</v>
       </c>
-      <c r="R40" s="43" t="s">
+      <c r="R40" s="40" t="s">
         <v>1</v>
       </c>
       <c r="S40" s="4" t="s">
@@ -4273,7 +4277,7 @@
     </row>
     <row r="41" spans="1:25" s="3" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
-      <c r="B41" s="14"/>
+      <c r="B41" s="160"/>
       <c r="C41" s="13">
         <v>8</v>
       </c>
@@ -4294,10 +4298,10 @@
       <c r="J41" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="K41" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="L41" s="37" t="s">
+      <c r="K41" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="L41" s="34" t="s">
         <v>1</v>
       </c>
       <c r="M41" s="6" t="s">
@@ -4305,13 +4309,13 @@
       </c>
       <c r="N41" s="1"/>
       <c r="O41" s="1"/>
-      <c r="P41" s="146" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q41" s="145" t="s">
-        <v>1</v>
-      </c>
-      <c r="R41" s="144" t="s">
+      <c r="P41" s="110" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q41" s="109" t="s">
+        <v>1</v>
+      </c>
+      <c r="R41" s="108" t="s">
         <v>1</v>
       </c>
       <c r="S41" s="4" t="s">
@@ -4329,18 +4333,18 @@
     </row>
     <row r="42" spans="1:25" s="3" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
-      <c r="B42" s="104"/>
-      <c r="C42" s="104"/>
-      <c r="D42" s="104"/>
-      <c r="E42" s="104"/>
-      <c r="F42" s="103"/>
-      <c r="G42" s="83"/>
-      <c r="H42" s="82"/>
-      <c r="I42" s="102"/>
-      <c r="J42" s="81"/>
-      <c r="K42" s="81"/>
-      <c r="L42" s="101"/>
-      <c r="M42" s="100"/>
+      <c r="B42" s="95"/>
+      <c r="C42" s="95"/>
+      <c r="D42" s="95"/>
+      <c r="E42" s="95"/>
+      <c r="F42" s="94"/>
+      <c r="G42" s="74"/>
+      <c r="H42" s="73"/>
+      <c r="I42" s="93"/>
+      <c r="J42" s="72"/>
+      <c r="K42" s="72"/>
+      <c r="L42" s="92"/>
+      <c r="M42" s="91"/>
       <c r="N42" s="1"/>
       <c r="O42" s="1"/>
       <c r="P42" s="1"/>
@@ -4353,29 +4357,29 @@
     </row>
     <row r="43" spans="1:25" s="3" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
-      <c r="B43" s="76" t="s">
+      <c r="B43" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="C43" s="74"/>
-      <c r="D43" s="74"/>
-      <c r="E43" s="74"/>
-      <c r="F43" s="75" t="s">
-        <v>0</v>
-      </c>
-      <c r="G43" s="74"/>
-      <c r="H43" s="73" t="s">
+      <c r="C43" s="65"/>
+      <c r="D43" s="65"/>
+      <c r="E43" s="65"/>
+      <c r="F43" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="G43" s="65"/>
+      <c r="H43" s="64" t="s">
         <v>69</v>
       </c>
-      <c r="I43" s="72"/>
-      <c r="J43" s="71"/>
-      <c r="K43" s="71"/>
-      <c r="L43" s="71"/>
-      <c r="M43" s="70"/>
-      <c r="N43" s="61"/>
-      <c r="O43" s="60"/>
-      <c r="P43" s="69"/>
-      <c r="Q43" s="68"/>
-      <c r="R43" s="67"/>
+      <c r="I43" s="63"/>
+      <c r="J43" s="62"/>
+      <c r="K43" s="62"/>
+      <c r="L43" s="62"/>
+      <c r="M43" s="61"/>
+      <c r="N43" s="55"/>
+      <c r="O43" s="54"/>
+      <c r="P43" s="152"/>
+      <c r="Q43" s="153"/>
+      <c r="R43" s="154"/>
       <c r="S43" s="4"/>
       <c r="W43" s="2"/>
       <c r="X43" s="2"/>
@@ -4383,66 +4387,66 @@
     </row>
     <row r="44" spans="1:25" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1"/>
-      <c r="B44" s="141" t="s">
+      <c r="B44" s="164" t="s">
         <v>28</v>
       </c>
-      <c r="C44" s="94"/>
-      <c r="D44" s="94"/>
-      <c r="E44" s="143" t="s">
+      <c r="C44" s="85"/>
+      <c r="D44" s="85"/>
+      <c r="E44" s="182" t="s">
         <v>27</v>
       </c>
-      <c r="F44" s="140" t="s">
+      <c r="F44" s="167" t="s">
         <v>26</v>
       </c>
-      <c r="G44" s="140" t="s">
+      <c r="G44" s="167" t="s">
         <v>25</v>
       </c>
-      <c r="H44" s="142" t="s">
+      <c r="H44" s="161" t="s">
         <v>24</v>
       </c>
-      <c r="I44" s="99"/>
-      <c r="J44" s="141" t="s">
+      <c r="I44" s="90"/>
+      <c r="J44" s="164" t="s">
         <v>23</v>
       </c>
-      <c r="K44" s="140" t="s">
+      <c r="K44" s="167" t="s">
         <v>22</v>
       </c>
-      <c r="L44" s="140" t="s">
-        <v>1</v>
-      </c>
-      <c r="M44" s="139" t="s">
+      <c r="L44" s="167" t="s">
+        <v>1</v>
+      </c>
+      <c r="M44" s="172" t="s">
         <v>21</v>
       </c>
-      <c r="N44" s="61"/>
-      <c r="O44" s="60"/>
-      <c r="P44" s="138" t="s">
+      <c r="N44" s="55"/>
+      <c r="O44" s="54"/>
+      <c r="P44" s="173" t="s">
         <v>20</v>
       </c>
-      <c r="Q44" s="137"/>
-      <c r="R44" s="136"/>
+      <c r="Q44" s="174"/>
+      <c r="R44" s="175"/>
       <c r="W44" s="2"/>
       <c r="X44" s="2"/>
       <c r="Y44" s="2"/>
     </row>
     <row r="45" spans="1:25" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1"/>
-      <c r="B45" s="133"/>
-      <c r="C45" s="135"/>
-      <c r="D45" s="135"/>
-      <c r="E45" s="132"/>
-      <c r="F45" s="134"/>
-      <c r="G45" s="132"/>
-      <c r="H45" s="130"/>
-      <c r="I45" s="99"/>
-      <c r="J45" s="133"/>
-      <c r="K45" s="132"/>
-      <c r="L45" s="131"/>
-      <c r="M45" s="130"/>
-      <c r="N45" s="61"/>
-      <c r="O45" s="60"/>
-      <c r="P45" s="129"/>
-      <c r="Q45" s="128"/>
-      <c r="R45" s="127"/>
+      <c r="B45" s="165"/>
+      <c r="C45" s="107"/>
+      <c r="D45" s="107"/>
+      <c r="E45" s="168"/>
+      <c r="F45" s="183"/>
+      <c r="G45" s="168"/>
+      <c r="H45" s="162"/>
+      <c r="I45" s="90"/>
+      <c r="J45" s="165"/>
+      <c r="K45" s="168"/>
+      <c r="L45" s="170"/>
+      <c r="M45" s="162"/>
+      <c r="N45" s="55"/>
+      <c r="O45" s="54"/>
+      <c r="P45" s="176"/>
+      <c r="Q45" s="177"/>
+      <c r="R45" s="178"/>
       <c r="S45" s="4"/>
       <c r="W45" s="2"/>
       <c r="X45" s="2"/>
@@ -4450,67 +4454,67 @@
     </row>
     <row r="46" spans="1:25" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1"/>
-      <c r="B46" s="133"/>
-      <c r="C46" s="135"/>
-      <c r="D46" s="135"/>
-      <c r="E46" s="132"/>
-      <c r="F46" s="134"/>
-      <c r="G46" s="132"/>
-      <c r="H46" s="130"/>
-      <c r="I46" s="99"/>
-      <c r="J46" s="133"/>
-      <c r="K46" s="132"/>
-      <c r="L46" s="131"/>
-      <c r="M46" s="130"/>
-      <c r="N46" s="61"/>
-      <c r="O46" s="60"/>
-      <c r="P46" s="129"/>
-      <c r="Q46" s="128"/>
-      <c r="R46" s="127"/>
+      <c r="B46" s="165"/>
+      <c r="C46" s="107"/>
+      <c r="D46" s="107"/>
+      <c r="E46" s="168"/>
+      <c r="F46" s="183"/>
+      <c r="G46" s="168"/>
+      <c r="H46" s="162"/>
+      <c r="I46" s="90"/>
+      <c r="J46" s="165"/>
+      <c r="K46" s="168"/>
+      <c r="L46" s="170"/>
+      <c r="M46" s="162"/>
+      <c r="N46" s="55"/>
+      <c r="O46" s="54"/>
+      <c r="P46" s="176"/>
+      <c r="Q46" s="177"/>
+      <c r="R46" s="178"/>
       <c r="S46" s="4"/>
       <c r="W46" s="2"/>
       <c r="X46" s="2"/>
       <c r="Y46" s="2"/>
     </row>
     <row r="47" spans="1:25" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="124"/>
-      <c r="C47" s="126"/>
-      <c r="D47" s="126"/>
-      <c r="E47" s="123"/>
-      <c r="F47" s="125"/>
-      <c r="G47" s="123"/>
-      <c r="H47" s="121"/>
-      <c r="I47" s="53"/>
-      <c r="J47" s="124"/>
-      <c r="K47" s="123"/>
-      <c r="L47" s="122"/>
-      <c r="M47" s="121"/>
+      <c r="B47" s="166"/>
+      <c r="C47" s="106"/>
+      <c r="D47" s="106"/>
+      <c r="E47" s="169"/>
+      <c r="F47" s="184"/>
+      <c r="G47" s="169"/>
+      <c r="H47" s="163"/>
+      <c r="I47" s="50"/>
+      <c r="J47" s="166"/>
+      <c r="K47" s="169"/>
+      <c r="L47" s="171"/>
+      <c r="M47" s="163"/>
       <c r="N47" s="1"/>
-      <c r="P47" s="120"/>
-      <c r="Q47" s="119"/>
-      <c r="R47" s="118"/>
+      <c r="P47" s="179"/>
+      <c r="Q47" s="180"/>
+      <c r="R47" s="181"/>
     </row>
     <row r="48" spans="1:25" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="95"/>
-      <c r="C48" s="94"/>
-      <c r="D48" s="94"/>
-      <c r="E48" s="93"/>
-      <c r="F48" s="92"/>
-      <c r="G48" s="92"/>
-      <c r="H48" s="91"/>
-      <c r="I48" s="53"/>
-      <c r="J48" s="52"/>
-      <c r="K48" s="51"/>
-      <c r="L48" s="50"/>
-      <c r="M48" s="49"/>
+      <c r="B48" s="86"/>
+      <c r="C48" s="85"/>
+      <c r="D48" s="85"/>
+      <c r="E48" s="84"/>
+      <c r="F48" s="83"/>
+      <c r="G48" s="83"/>
+      <c r="H48" s="82"/>
+      <c r="I48" s="50"/>
+      <c r="J48" s="49"/>
+      <c r="K48" s="48"/>
+      <c r="L48" s="47"/>
+      <c r="M48" s="46"/>
       <c r="N48" s="1"/>
-      <c r="P48" s="90" t="s">
+      <c r="P48" s="81" t="s">
         <v>19</v>
       </c>
-      <c r="Q48" s="89" t="s">
+      <c r="Q48" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="R48" s="88" t="s">
+      <c r="R48" s="79" t="s">
         <v>17</v>
       </c>
       <c r="V48" s="3" t="s">
@@ -4518,48 +4522,48 @@
       </c>
     </row>
     <row r="49" spans="1:25" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="36">
-        <v>1</v>
-      </c>
-      <c r="C49" s="35">
-        <v>1</v>
-      </c>
-      <c r="D49" s="107">
-        <v>0</v>
-      </c>
-      <c r="E49" s="34" t="s">
+      <c r="B49" s="158">
+        <v>1</v>
+      </c>
+      <c r="C49" s="33">
+        <v>1</v>
+      </c>
+      <c r="D49" s="98">
+        <v>0</v>
+      </c>
+      <c r="E49" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="F49" s="33" t="s">
+      <c r="F49" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="G49" s="32">
+      <c r="G49" s="30">
         <v>18</v>
       </c>
-      <c r="H49" s="31">
+      <c r="H49" s="29">
         <v>5</v>
       </c>
       <c r="I49" s="8"/>
-      <c r="J49" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="K49" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="L49" s="41" t="s">
-        <v>1</v>
-      </c>
-      <c r="M49" s="29">
+      <c r="J49" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="K49" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="L49" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="M49" s="27">
         <v>0</v>
       </c>
       <c r="N49" s="1"/>
-      <c r="P49" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q49" s="44" t="s">
-        <v>1</v>
-      </c>
-      <c r="R49" s="43" t="s">
+      <c r="P49" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q49" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="R49" s="40" t="s">
         <v>1</v>
       </c>
       <c r="S49" s="4" t="s">
@@ -4576,46 +4580,46 @@
       </c>
     </row>
     <row r="50" spans="1:25" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="25"/>
-      <c r="C50" s="24">
-        <v>1</v>
-      </c>
-      <c r="D50" s="106">
-        <v>0</v>
-      </c>
-      <c r="E50" s="23" t="s">
+      <c r="B50" s="159"/>
+      <c r="C50" s="23">
+        <v>1</v>
+      </c>
+      <c r="D50" s="97">
+        <v>0</v>
+      </c>
+      <c r="E50" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="F50" s="22" t="s">
+      <c r="F50" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="G50" s="21">
-        <v>1</v>
-      </c>
-      <c r="H50" s="20">
+      <c r="G50" s="20">
+        <v>1</v>
+      </c>
+      <c r="H50" s="19">
         <v>10</v>
       </c>
       <c r="I50" s="8"/>
-      <c r="J50" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="K50" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="L50" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="M50" s="18">
+      <c r="J50" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="K50" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="L50" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="M50" s="17">
         <v>0</v>
       </c>
       <c r="N50" s="1"/>
-      <c r="P50" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q50" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="R50" s="26" t="s">
+      <c r="P50" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q50" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="R50" s="24" t="s">
         <v>1</v>
       </c>
       <c r="S50" s="4" t="s">
@@ -4628,12 +4632,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:25" s="60" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="14"/>
+    <row r="51" spans="1:25" s="54" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="160"/>
       <c r="C51" s="13">
         <v>1</v>
       </c>
-      <c r="D51" s="105">
+      <c r="D51" s="96">
         <v>0</v>
       </c>
       <c r="E51" s="12"/>
@@ -4650,10 +4654,10 @@
       <c r="J51" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="K51" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="L51" s="37" t="s">
+      <c r="K51" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="L51" s="34" t="s">
         <v>1</v>
       </c>
       <c r="M51" s="6" t="s">
@@ -4661,13 +4665,13 @@
       </c>
       <c r="N51" s="1"/>
       <c r="O51" s="1"/>
-      <c r="P51" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q51" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="R51" s="15" t="s">
+      <c r="P51" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q51" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="R51" s="14" t="s">
         <v>1</v>
       </c>
       <c r="S51" s="4" t="s">
@@ -4680,53 +4684,53 @@
       <c r="V51" s="3">
         <v>3</v>
       </c>
-      <c r="W51" s="117"/>
-      <c r="X51" s="117"/>
-      <c r="Y51" s="117"/>
+      <c r="W51" s="105"/>
+      <c r="X51" s="105"/>
+      <c r="Y51" s="105"/>
     </row>
     <row r="52" spans="1:25" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="36">
+      <c r="B52" s="158">
         <v>2</v>
       </c>
-      <c r="C52" s="35">
+      <c r="C52" s="33">
         <v>2</v>
       </c>
-      <c r="D52" s="107">
-        <v>0</v>
-      </c>
-      <c r="E52" s="34" t="s">
+      <c r="D52" s="98">
+        <v>0</v>
+      </c>
+      <c r="E52" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="F52" s="33" t="s">
+      <c r="F52" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="G52" s="32">
+      <c r="G52" s="30">
         <v>90</v>
       </c>
-      <c r="H52" s="31">
+      <c r="H52" s="29">
         <v>1</v>
       </c>
       <c r="I52" s="8"/>
-      <c r="J52" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="K52" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="L52" s="41" t="s">
-        <v>1</v>
-      </c>
-      <c r="M52" s="29">
+      <c r="J52" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="K52" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="L52" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="M52" s="27">
         <v>0</v>
       </c>
       <c r="N52" s="1"/>
-      <c r="P52" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q52" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="R52" s="26" t="s">
+      <c r="P52" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q52" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="R52" s="24" t="s">
         <v>1</v>
       </c>
       <c r="S52" s="4" t="s">
@@ -4743,46 +4747,46 @@
       </c>
     </row>
     <row r="53" spans="1:25" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="25"/>
-      <c r="C53" s="24">
+      <c r="B53" s="159"/>
+      <c r="C53" s="23">
         <v>2</v>
       </c>
-      <c r="D53" s="106">
-        <v>0</v>
-      </c>
-      <c r="E53" s="23" t="s">
+      <c r="D53" s="97">
+        <v>0</v>
+      </c>
+      <c r="E53" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="F53" s="22" t="s">
+      <c r="F53" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="G53" s="21">
+      <c r="G53" s="20">
         <v>67</v>
       </c>
-      <c r="H53" s="20">
+      <c r="H53" s="19">
         <v>1</v>
       </c>
       <c r="I53" s="8"/>
-      <c r="J53" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="K53" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="L53" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="M53" s="18">
+      <c r="J53" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="K53" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="L53" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="M53" s="17">
         <v>0</v>
       </c>
       <c r="N53" s="1"/>
-      <c r="P53" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q53" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="R53" s="15" t="s">
+      <c r="P53" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q53" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="R53" s="14" t="s">
         <v>1</v>
       </c>
       <c r="S53" s="4" t="s">
@@ -4796,11 +4800,11 @@
       </c>
     </row>
     <row r="54" spans="1:25" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="14"/>
+      <c r="B54" s="160"/>
       <c r="C54" s="13">
         <v>2</v>
       </c>
-      <c r="D54" s="105">
+      <c r="D54" s="96">
         <v>0</v>
       </c>
       <c r="E54" s="12"/>
@@ -4817,23 +4821,23 @@
       <c r="J54" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="K54" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="L54" s="37" t="s">
+      <c r="K54" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="L54" s="34" t="s">
         <v>1</v>
       </c>
       <c r="M54" s="6" t="s">
         <v>1</v>
       </c>
       <c r="N54" s="1"/>
-      <c r="P54" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q54" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="R54" s="26" t="s">
+      <c r="P54" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q54" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="R54" s="24" t="s">
         <v>1</v>
       </c>
       <c r="S54" s="4" t="s">
@@ -4847,48 +4851,48 @@
       </c>
     </row>
     <row r="55" spans="1:25" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="36">
+      <c r="B55" s="158">
         <v>3</v>
       </c>
-      <c r="C55" s="35">
+      <c r="C55" s="33">
         <v>3</v>
       </c>
-      <c r="D55" s="107">
+      <c r="D55" s="98">
         <v>9</v>
       </c>
-      <c r="E55" s="34" t="s">
+      <c r="E55" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="F55" s="33" t="s">
+      <c r="F55" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="G55" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="H55" s="31" t="s">
+      <c r="G55" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="H55" s="29" t="s">
         <v>1</v>
       </c>
       <c r="I55" s="8"/>
-      <c r="J55" s="30">
+      <c r="J55" s="28">
         <v>28.25</v>
       </c>
-      <c r="K55" s="42">
+      <c r="K55" s="39">
         <v>3</v>
       </c>
-      <c r="L55" s="41" t="s">
-        <v>1</v>
-      </c>
-      <c r="M55" s="29">
+      <c r="L55" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="M55" s="27">
         <v>31.25</v>
       </c>
       <c r="N55" s="1"/>
-      <c r="P55" s="17" t="s">
+      <c r="P55" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="Q55" s="16">
+      <c r="Q55" s="15">
         <v>15.625</v>
       </c>
-      <c r="R55" s="15" t="s">
+      <c r="R55" s="14" t="s">
         <v>1</v>
       </c>
       <c r="S55" s="4" t="s">
@@ -4905,46 +4909,46 @@
       </c>
     </row>
     <row r="56" spans="1:25" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B56" s="25"/>
-      <c r="C56" s="24">
+      <c r="B56" s="159"/>
+      <c r="C56" s="23">
         <v>3</v>
       </c>
-      <c r="D56" s="106">
+      <c r="D56" s="97">
         <v>9</v>
       </c>
-      <c r="E56" s="23" t="s">
+      <c r="E56" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="F56" s="22" t="s">
+      <c r="F56" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="G56" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="H56" s="20" t="s">
+      <c r="G56" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="H56" s="19" t="s">
         <v>1</v>
       </c>
       <c r="I56" s="8"/>
-      <c r="J56" s="19">
+      <c r="J56" s="18">
         <v>28.25</v>
       </c>
-      <c r="K56" s="40">
+      <c r="K56" s="37">
         <v>3</v>
       </c>
-      <c r="L56" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="M56" s="18">
+      <c r="L56" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="M56" s="17">
         <v>31.25</v>
       </c>
       <c r="N56" s="1"/>
-      <c r="P56" s="28" t="s">
+      <c r="P56" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="Q56" s="27">
+      <c r="Q56" s="25">
         <v>15.625</v>
       </c>
-      <c r="R56" s="26" t="s">
+      <c r="R56" s="24" t="s">
         <v>1</v>
       </c>
       <c r="S56" s="4" t="s">
@@ -4958,11 +4962,11 @@
       </c>
     </row>
     <row r="57" spans="1:25" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="14"/>
+      <c r="B57" s="160"/>
       <c r="C57" s="13">
         <v>3</v>
       </c>
-      <c r="D57" s="105">
+      <c r="D57" s="96">
         <v>9</v>
       </c>
       <c r="E57" s="12"/>
@@ -4979,23 +4983,23 @@
       <c r="J57" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="K57" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="L57" s="37" t="s">
+      <c r="K57" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="L57" s="34" t="s">
         <v>1</v>
       </c>
       <c r="M57" s="6" t="s">
         <v>1</v>
       </c>
       <c r="N57" s="1"/>
-      <c r="P57" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q57" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="R57" s="15" t="s">
+      <c r="P57" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q57" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="R57" s="14" t="s">
         <v>1</v>
       </c>
       <c r="S57" s="4" t="s">
@@ -5009,48 +5013,48 @@
       </c>
     </row>
     <row r="58" spans="1:25" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="36">
+      <c r="B58" s="158">
         <v>4</v>
       </c>
-      <c r="C58" s="35">
+      <c r="C58" s="33">
         <v>4</v>
       </c>
-      <c r="D58" s="107">
+      <c r="D58" s="98">
         <v>13</v>
       </c>
-      <c r="E58" s="34" t="s">
+      <c r="E58" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="F58" s="33" t="s">
+      <c r="F58" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="G58" s="32">
+      <c r="G58" s="30">
         <v>130</v>
       </c>
-      <c r="H58" s="31">
+      <c r="H58" s="29">
         <v>0.5</v>
       </c>
       <c r="I58" s="8"/>
-      <c r="J58" s="30">
+      <c r="J58" s="28">
         <v>17</v>
       </c>
-      <c r="K58" s="42">
+      <c r="K58" s="39">
         <v>2</v>
       </c>
-      <c r="L58" s="41" t="s">
-        <v>1</v>
-      </c>
-      <c r="M58" s="29">
+      <c r="L58" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="M58" s="27">
         <v>19</v>
       </c>
       <c r="N58" s="1"/>
-      <c r="P58" s="28" t="s">
+      <c r="P58" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="Q58" s="27">
+      <c r="Q58" s="25">
         <v>9.5</v>
       </c>
-      <c r="R58" s="26" t="s">
+      <c r="R58" s="24" t="s">
         <v>1</v>
       </c>
       <c r="S58" s="4" t="s">
@@ -5067,46 +5071,46 @@
       </c>
     </row>
     <row r="59" spans="1:25" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B59" s="25"/>
-      <c r="C59" s="24">
+      <c r="B59" s="159"/>
+      <c r="C59" s="23">
         <v>4</v>
       </c>
-      <c r="D59" s="106">
+      <c r="D59" s="97">
         <v>13</v>
       </c>
-      <c r="E59" s="23" t="s">
+      <c r="E59" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="F59" s="22" t="s">
+      <c r="F59" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="G59" s="21">
+      <c r="G59" s="20">
         <v>125</v>
       </c>
-      <c r="H59" s="20">
+      <c r="H59" s="19">
         <v>0.5</v>
       </c>
       <c r="I59" s="8"/>
-      <c r="J59" s="19">
+      <c r="J59" s="18">
         <v>17</v>
       </c>
-      <c r="K59" s="40">
+      <c r="K59" s="37">
         <v>2</v>
       </c>
-      <c r="L59" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="M59" s="18">
+      <c r="L59" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="M59" s="17">
         <v>19</v>
       </c>
       <c r="N59" s="1"/>
-      <c r="P59" s="17" t="s">
+      <c r="P59" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="Q59" s="16">
+      <c r="Q59" s="15">
         <v>9.5</v>
       </c>
-      <c r="R59" s="15" t="s">
+      <c r="R59" s="14" t="s">
         <v>1</v>
       </c>
       <c r="S59" s="4" t="s">
@@ -5120,11 +5124,11 @@
       </c>
     </row>
     <row r="60" spans="1:25" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="14"/>
+      <c r="B60" s="160"/>
       <c r="C60" s="13">
         <v>4</v>
       </c>
-      <c r="D60" s="105">
+      <c r="D60" s="96">
         <v>13</v>
       </c>
       <c r="E60" s="12"/>
@@ -5141,23 +5145,23 @@
       <c r="J60" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="K60" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="L60" s="37" t="s">
+      <c r="K60" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="L60" s="34" t="s">
         <v>1</v>
       </c>
       <c r="M60" s="6" t="s">
         <v>1</v>
       </c>
       <c r="N60" s="1"/>
-      <c r="P60" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q60" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="R60" s="26" t="s">
+      <c r="P60" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q60" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="R60" s="24" t="s">
         <v>1</v>
       </c>
       <c r="S60" s="4" t="s">
@@ -5171,48 +5175,48 @@
       </c>
     </row>
     <row r="61" spans="1:25" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B61" s="36">
+      <c r="B61" s="158">
         <v>5</v>
       </c>
-      <c r="C61" s="35">
+      <c r="C61" s="33">
         <v>5</v>
       </c>
-      <c r="D61" s="107">
+      <c r="D61" s="98">
         <v>17</v>
       </c>
-      <c r="E61" s="34" t="s">
+      <c r="E61" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="F61" s="33" t="s">
+      <c r="F61" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="G61" s="32">
+      <c r="G61" s="30">
         <v>122</v>
       </c>
-      <c r="H61" s="31">
+      <c r="H61" s="29">
         <v>0.5</v>
       </c>
       <c r="I61" s="8"/>
-      <c r="J61" s="30">
+      <c r="J61" s="28">
         <v>11.63</v>
       </c>
-      <c r="K61" s="42">
+      <c r="K61" s="39">
         <v>0.5</v>
       </c>
-      <c r="L61" s="41" t="s">
-        <v>1</v>
-      </c>
-      <c r="M61" s="29">
+      <c r="L61" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="M61" s="27">
         <v>12.13</v>
       </c>
       <c r="N61" s="1"/>
-      <c r="P61" s="17" t="s">
+      <c r="P61" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="Q61" s="16">
+      <c r="Q61" s="15">
         <v>6.0650000000000004</v>
       </c>
-      <c r="R61" s="15" t="s">
+      <c r="R61" s="14" t="s">
         <v>1</v>
       </c>
       <c r="S61" s="4" t="s">
@@ -5229,46 +5233,46 @@
       </c>
     </row>
     <row r="62" spans="1:25" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="25"/>
-      <c r="C62" s="24">
+      <c r="B62" s="159"/>
+      <c r="C62" s="23">
         <v>5</v>
       </c>
-      <c r="D62" s="106">
+      <c r="D62" s="97">
         <v>17</v>
       </c>
-      <c r="E62" s="23" t="s">
+      <c r="E62" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="F62" s="22" t="s">
+      <c r="F62" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="G62" s="21">
+      <c r="G62" s="20">
         <v>81</v>
       </c>
-      <c r="H62" s="20">
+      <c r="H62" s="19">
         <v>1</v>
       </c>
       <c r="I62" s="8"/>
-      <c r="J62" s="19">
+      <c r="J62" s="18">
         <v>11.63</v>
       </c>
-      <c r="K62" s="40">
+      <c r="K62" s="37">
         <v>0.5</v>
       </c>
-      <c r="L62" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="M62" s="18">
+      <c r="L62" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="M62" s="17">
         <v>12.13</v>
       </c>
       <c r="N62" s="1"/>
-      <c r="P62" s="28" t="s">
+      <c r="P62" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="Q62" s="27">
+      <c r="Q62" s="25">
         <v>6.0650000000000004</v>
       </c>
-      <c r="R62" s="26">
+      <c r="R62" s="24">
         <v>5.8150000000000004</v>
       </c>
       <c r="S62" s="4" t="s">
@@ -5283,11 +5287,11 @@
     </row>
     <row r="63" spans="1:25" s="2" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
-      <c r="B63" s="14"/>
+      <c r="B63" s="160"/>
       <c r="C63" s="13">
         <v>5</v>
       </c>
-      <c r="D63" s="105">
+      <c r="D63" s="96">
         <v>17</v>
       </c>
       <c r="E63" s="12"/>
@@ -5304,10 +5308,10 @@
       <c r="J63" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="K63" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="L63" s="37" t="s">
+      <c r="K63" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="L63" s="34" t="s">
         <v>1</v>
       </c>
       <c r="M63" s="6" t="s">
@@ -5315,13 +5319,13 @@
       </c>
       <c r="N63" s="1"/>
       <c r="O63" s="1"/>
-      <c r="P63" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q63" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="R63" s="15" t="s">
+      <c r="P63" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q63" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="R63" s="14" t="s">
         <v>1</v>
       </c>
       <c r="S63" s="4" t="s">
@@ -5337,49 +5341,49 @@
     </row>
     <row r="64" spans="1:25" s="2" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1"/>
-      <c r="B64" s="36">
+      <c r="B64" s="158">
         <v>6</v>
       </c>
-      <c r="C64" s="35">
+      <c r="C64" s="33">
         <v>6</v>
       </c>
-      <c r="D64" s="107">
+      <c r="D64" s="98">
         <v>21</v>
       </c>
-      <c r="E64" s="34" t="s">
+      <c r="E64" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="F64" s="33" t="s">
+      <c r="F64" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="G64" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="H64" s="31" t="s">
+      <c r="G64" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="H64" s="29" t="s">
         <v>1</v>
       </c>
       <c r="I64" s="8"/>
-      <c r="J64" s="30">
+      <c r="J64" s="28">
         <v>9.75</v>
       </c>
-      <c r="K64" s="42">
-        <v>0</v>
-      </c>
-      <c r="L64" s="41" t="s">
-        <v>1</v>
-      </c>
-      <c r="M64" s="29">
+      <c r="K64" s="39">
+        <v>0</v>
+      </c>
+      <c r="L64" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="M64" s="27">
         <v>9.75</v>
       </c>
       <c r="N64" s="1"/>
       <c r="O64" s="1"/>
-      <c r="P64" s="28" t="s">
+      <c r="P64" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="Q64" s="27">
+      <c r="Q64" s="25">
         <v>4.875</v>
       </c>
-      <c r="R64" s="26" t="s">
+      <c r="R64" s="24" t="s">
         <v>1</v>
       </c>
       <c r="S64" s="4" t="s">
@@ -5397,47 +5401,47 @@
     </row>
     <row r="65" spans="1:22" s="2" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1"/>
-      <c r="B65" s="25"/>
-      <c r="C65" s="24">
+      <c r="B65" s="159"/>
+      <c r="C65" s="23">
         <v>6</v>
       </c>
-      <c r="D65" s="106">
+      <c r="D65" s="97">
         <v>21</v>
       </c>
-      <c r="E65" s="23" t="s">
+      <c r="E65" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="F65" s="22" t="s">
+      <c r="F65" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="G65" s="21">
+      <c r="G65" s="20">
         <v>155</v>
       </c>
-      <c r="H65" s="20">
+      <c r="H65" s="19">
         <v>0.5</v>
       </c>
       <c r="I65" s="8"/>
-      <c r="J65" s="19">
+      <c r="J65" s="18">
         <v>9.75</v>
       </c>
-      <c r="K65" s="40">
-        <v>0</v>
-      </c>
-      <c r="L65" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="M65" s="18">
+      <c r="K65" s="37">
+        <v>0</v>
+      </c>
+      <c r="L65" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="M65" s="17">
         <v>9.75</v>
       </c>
       <c r="N65" s="1"/>
       <c r="O65" s="1"/>
-      <c r="P65" s="17" t="s">
+      <c r="P65" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="Q65" s="16">
+      <c r="Q65" s="15">
         <v>4.875</v>
       </c>
-      <c r="R65" s="15" t="s">
+      <c r="R65" s="14" t="s">
         <v>1</v>
       </c>
       <c r="S65" s="4" t="s">
@@ -5453,11 +5457,11 @@
     </row>
     <row r="66" spans="1:22" s="2" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
-      <c r="B66" s="14"/>
+      <c r="B66" s="160"/>
       <c r="C66" s="13">
         <v>6</v>
       </c>
-      <c r="D66" s="105">
+      <c r="D66" s="96">
         <v>21</v>
       </c>
       <c r="E66" s="12"/>
@@ -5474,10 +5478,10 @@
       <c r="J66" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="K66" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="L66" s="37" t="s">
+      <c r="K66" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="L66" s="34" t="s">
         <v>1</v>
       </c>
       <c r="M66" s="6" t="s">
@@ -5485,13 +5489,13 @@
       </c>
       <c r="N66" s="1"/>
       <c r="O66" s="1"/>
-      <c r="P66" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q66" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="R66" s="26" t="s">
+      <c r="P66" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q66" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="R66" s="24" t="s">
         <v>1</v>
       </c>
       <c r="S66" s="4" t="s">
@@ -5506,120 +5510,120 @@
       </c>
     </row>
     <row r="67" spans="1:22" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="84"/>
-      <c r="C67" s="84"/>
-      <c r="D67" s="84"/>
-      <c r="E67" s="79"/>
-      <c r="F67" s="80"/>
-      <c r="G67" s="83"/>
-      <c r="H67" s="82"/>
-      <c r="I67" s="81"/>
-      <c r="J67" s="80"/>
-      <c r="K67" s="79"/>
-      <c r="L67" s="79"/>
-      <c r="M67" s="79"/>
-      <c r="N67" s="78"/>
-      <c r="O67" s="77"/>
-      <c r="P67" s="77"/>
-      <c r="Q67" s="77"/>
-      <c r="R67" s="77"/>
+      <c r="B67" s="75"/>
+      <c r="C67" s="75"/>
+      <c r="D67" s="75"/>
+      <c r="E67" s="70"/>
+      <c r="F67" s="71"/>
+      <c r="G67" s="74"/>
+      <c r="H67" s="73"/>
+      <c r="I67" s="72"/>
+      <c r="J67" s="71"/>
+      <c r="K67" s="70"/>
+      <c r="L67" s="70"/>
+      <c r="M67" s="70"/>
+      <c r="N67" s="69"/>
+      <c r="O67" s="68"/>
+      <c r="P67" s="68"/>
+      <c r="Q67" s="68"/>
+      <c r="R67" s="68"/>
       <c r="V67" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:22" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="77"/>
-      <c r="B68" s="76" t="s">
+      <c r="A68" s="68"/>
+      <c r="B68" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="C68" s="74"/>
-      <c r="D68" s="74"/>
-      <c r="E68" s="74"/>
-      <c r="F68" s="75" t="s">
-        <v>0</v>
-      </c>
-      <c r="G68" s="74"/>
-      <c r="H68" s="73" t="s">
+      <c r="C68" s="65"/>
+      <c r="D68" s="65"/>
+      <c r="E68" s="65"/>
+      <c r="F68" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="G68" s="65"/>
+      <c r="H68" s="64" t="s">
         <v>55</v>
       </c>
-      <c r="I68" s="72"/>
-      <c r="J68" s="71"/>
-      <c r="K68" s="71"/>
-      <c r="L68" s="71"/>
-      <c r="M68" s="70"/>
-      <c r="N68" s="61"/>
-      <c r="O68" s="60"/>
-      <c r="P68" s="69"/>
-      <c r="Q68" s="68"/>
-      <c r="R68" s="67"/>
+      <c r="I68" s="63"/>
+      <c r="J68" s="62"/>
+      <c r="K68" s="62"/>
+      <c r="L68" s="62"/>
+      <c r="M68" s="61"/>
+      <c r="N68" s="55"/>
+      <c r="O68" s="54"/>
+      <c r="P68" s="152"/>
+      <c r="Q68" s="153"/>
+      <c r="R68" s="154"/>
       <c r="V68" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:22" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="77"/>
-      <c r="B69" s="98" t="s">
+      <c r="A69" s="68"/>
+      <c r="B69" s="89" t="s">
         <v>28</v>
       </c>
-      <c r="C69" s="116"/>
-      <c r="D69" s="116"/>
-      <c r="E69" s="115" t="s">
+      <c r="C69" s="104"/>
+      <c r="D69" s="104"/>
+      <c r="E69" s="103" t="s">
         <v>27</v>
       </c>
-      <c r="F69" s="97" t="s">
+      <c r="F69" s="88" t="s">
         <v>26</v>
       </c>
-      <c r="G69" s="97" t="s">
+      <c r="G69" s="88" t="s">
         <v>25</v>
       </c>
-      <c r="H69" s="114" t="s">
+      <c r="H69" s="102" t="s">
         <v>24</v>
       </c>
-      <c r="I69" s="53"/>
-      <c r="J69" s="113" t="s">
+      <c r="I69" s="50"/>
+      <c r="J69" s="101" t="s">
         <v>23</v>
       </c>
-      <c r="K69" s="112" t="s">
+      <c r="K69" s="100" t="s">
         <v>22</v>
       </c>
-      <c r="L69" s="112" t="s">
-        <v>1</v>
-      </c>
-      <c r="M69" s="111" t="s">
+      <c r="L69" s="100" t="s">
+        <v>1</v>
+      </c>
+      <c r="M69" s="99" t="s">
         <v>21</v>
       </c>
       <c r="N69" s="1"/>
-      <c r="P69" s="110" t="s">
+      <c r="P69" s="155" t="s">
         <v>20</v>
       </c>
-      <c r="Q69" s="109"/>
-      <c r="R69" s="108"/>
+      <c r="Q69" s="156"/>
+      <c r="R69" s="157"/>
       <c r="V69" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:22" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="77"/>
-      <c r="B70" s="95"/>
-      <c r="C70" s="94"/>
-      <c r="D70" s="94"/>
-      <c r="E70" s="93"/>
-      <c r="F70" s="92"/>
-      <c r="G70" s="92"/>
-      <c r="H70" s="91"/>
-      <c r="I70" s="53"/>
-      <c r="J70" s="52"/>
-      <c r="K70" s="51"/>
-      <c r="L70" s="50"/>
-      <c r="M70" s="49"/>
+      <c r="A70" s="68"/>
+      <c r="B70" s="86"/>
+      <c r="C70" s="85"/>
+      <c r="D70" s="85"/>
+      <c r="E70" s="84"/>
+      <c r="F70" s="83"/>
+      <c r="G70" s="83"/>
+      <c r="H70" s="82"/>
+      <c r="I70" s="50"/>
+      <c r="J70" s="49"/>
+      <c r="K70" s="48"/>
+      <c r="L70" s="47"/>
+      <c r="M70" s="46"/>
       <c r="N70" s="1"/>
-      <c r="P70" s="90" t="s">
+      <c r="P70" s="81" t="s">
         <v>19</v>
       </c>
-      <c r="Q70" s="89" t="s">
+      <c r="Q70" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="R70" s="88" t="s">
+      <c r="R70" s="79" t="s">
         <v>17</v>
       </c>
       <c r="V70" s="3">
@@ -5627,50 +5631,50 @@
       </c>
     </row>
     <row r="71" spans="1:22" s="2" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="77"/>
-      <c r="B71" s="36">
-        <v>1</v>
-      </c>
-      <c r="C71" s="35">
-        <v>1</v>
-      </c>
-      <c r="D71" s="107">
-        <v>0</v>
-      </c>
-      <c r="E71" s="34" t="s">
+      <c r="A71" s="68"/>
+      <c r="B71" s="158">
+        <v>1</v>
+      </c>
+      <c r="C71" s="33">
+        <v>1</v>
+      </c>
+      <c r="D71" s="98">
+        <v>0</v>
+      </c>
+      <c r="E71" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="F71" s="33" t="s">
+      <c r="F71" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="G71" s="32">
+      <c r="G71" s="30">
         <v>10</v>
       </c>
-      <c r="H71" s="31">
+      <c r="H71" s="29">
         <v>7.5</v>
       </c>
       <c r="I71" s="8"/>
-      <c r="J71" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="K71" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="L71" s="41" t="s">
-        <v>1</v>
-      </c>
-      <c r="M71" s="29">
+      <c r="J71" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="K71" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="L71" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="M71" s="27">
         <v>0</v>
       </c>
       <c r="N71" s="1"/>
       <c r="O71" s="1"/>
-      <c r="P71" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q71" s="44" t="s">
-        <v>1</v>
-      </c>
-      <c r="R71" s="43" t="s">
+      <c r="P71" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q71" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="R71" s="40" t="s">
         <v>1</v>
       </c>
       <c r="S71" s="4" t="s">
@@ -5687,48 +5691,48 @@
       </c>
     </row>
     <row r="72" spans="1:22" s="2" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="77"/>
-      <c r="B72" s="25"/>
-      <c r="C72" s="24">
-        <v>1</v>
-      </c>
-      <c r="D72" s="106">
-        <v>0</v>
-      </c>
-      <c r="E72" s="23" t="s">
+      <c r="A72" s="68"/>
+      <c r="B72" s="159"/>
+      <c r="C72" s="23">
+        <v>1</v>
+      </c>
+      <c r="D72" s="97">
+        <v>0</v>
+      </c>
+      <c r="E72" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="F72" s="22" t="s">
+      <c r="F72" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="G72" s="21">
+      <c r="G72" s="20">
         <v>28</v>
       </c>
-      <c r="H72" s="20">
+      <c r="H72" s="19">
         <v>2.5</v>
       </c>
       <c r="I72" s="8"/>
-      <c r="J72" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="K72" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="L72" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="M72" s="18">
+      <c r="J72" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="K72" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="L72" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="M72" s="17">
         <v>0</v>
       </c>
       <c r="N72" s="1"/>
       <c r="O72" s="1"/>
-      <c r="P72" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q72" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="R72" s="26" t="s">
+      <c r="P72" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q72" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="R72" s="24" t="s">
         <v>1</v>
       </c>
       <c r="S72" s="4" t="s">
@@ -5743,12 +5747,12 @@
       </c>
     </row>
     <row r="73" spans="1:22" s="2" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="77"/>
-      <c r="B73" s="14"/>
+      <c r="A73" s="68"/>
+      <c r="B73" s="160"/>
       <c r="C73" s="13">
         <v>1</v>
       </c>
-      <c r="D73" s="105">
+      <c r="D73" s="96">
         <v>0</v>
       </c>
       <c r="E73" s="12"/>
@@ -5765,10 +5769,10 @@
       <c r="J73" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="K73" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="L73" s="37" t="s">
+      <c r="K73" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="L73" s="34" t="s">
         <v>1</v>
       </c>
       <c r="M73" s="6" t="s">
@@ -5776,13 +5780,13 @@
       </c>
       <c r="N73" s="1"/>
       <c r="O73" s="1"/>
-      <c r="P73" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q73" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="R73" s="15" t="s">
+      <c r="P73" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q73" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="R73" s="14" t="s">
         <v>1</v>
       </c>
       <c r="S73" s="4" t="s">
@@ -5797,50 +5801,50 @@
       </c>
     </row>
     <row r="74" spans="1:22" s="2" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="77"/>
-      <c r="B74" s="36">
+      <c r="A74" s="68"/>
+      <c r="B74" s="158">
         <v>2</v>
       </c>
-      <c r="C74" s="35">
+      <c r="C74" s="33">
         <v>2</v>
       </c>
-      <c r="D74" s="107">
-        <v>0</v>
-      </c>
-      <c r="E74" s="34" t="s">
+      <c r="D74" s="98">
+        <v>0</v>
+      </c>
+      <c r="E74" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="F74" s="33" t="s">
+      <c r="F74" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="G74" s="32">
+      <c r="G74" s="30">
         <v>162</v>
       </c>
-      <c r="H74" s="31">
+      <c r="H74" s="29">
         <v>0.5</v>
       </c>
       <c r="I74" s="8"/>
-      <c r="J74" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="K74" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="L74" s="41" t="s">
-        <v>1</v>
-      </c>
-      <c r="M74" s="29">
+      <c r="J74" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="K74" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="L74" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="M74" s="27">
         <v>0</v>
       </c>
       <c r="N74" s="1"/>
       <c r="O74" s="1"/>
-      <c r="P74" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q74" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="R74" s="26" t="s">
+      <c r="P74" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q74" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="R74" s="24" t="s">
         <v>1</v>
       </c>
       <c r="S74" s="4" t="s">
@@ -5857,48 +5861,48 @@
       </c>
     </row>
     <row r="75" spans="1:22" s="2" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="77"/>
-      <c r="B75" s="25"/>
-      <c r="C75" s="24">
+      <c r="A75" s="68"/>
+      <c r="B75" s="159"/>
+      <c r="C75" s="23">
         <v>2</v>
       </c>
-      <c r="D75" s="106">
-        <v>0</v>
-      </c>
-      <c r="E75" s="23" t="s">
+      <c r="D75" s="97">
+        <v>0</v>
+      </c>
+      <c r="E75" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="F75" s="22" t="s">
+      <c r="F75" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="G75" s="21">
+      <c r="G75" s="20">
         <v>171</v>
       </c>
-      <c r="H75" s="20">
+      <c r="H75" s="19">
         <v>0.5</v>
       </c>
       <c r="I75" s="8"/>
-      <c r="J75" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="K75" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="L75" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="M75" s="18">
+      <c r="J75" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="K75" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="L75" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="M75" s="17">
         <v>0</v>
       </c>
       <c r="N75" s="1"/>
       <c r="O75" s="1"/>
-      <c r="P75" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q75" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="R75" s="15" t="s">
+      <c r="P75" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q75" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="R75" s="14" t="s">
         <v>1</v>
       </c>
       <c r="S75" s="4" t="s">
@@ -5913,12 +5917,12 @@
       </c>
     </row>
     <row r="76" spans="1:22" s="2" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="77"/>
-      <c r="B76" s="14"/>
+      <c r="A76" s="68"/>
+      <c r="B76" s="160"/>
       <c r="C76" s="13">
         <v>2</v>
       </c>
-      <c r="D76" s="105">
+      <c r="D76" s="96">
         <v>0</v>
       </c>
       <c r="E76" s="12"/>
@@ -5935,10 +5939,10 @@
       <c r="J76" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="K76" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="L76" s="37" t="s">
+      <c r="K76" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="L76" s="34" t="s">
         <v>1</v>
       </c>
       <c r="M76" s="6" t="s">
@@ -5946,13 +5950,13 @@
       </c>
       <c r="N76" s="1"/>
       <c r="O76" s="1"/>
-      <c r="P76" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q76" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="R76" s="26" t="s">
+      <c r="P76" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q76" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="R76" s="24" t="s">
         <v>1</v>
       </c>
       <c r="S76" s="4" t="s">
@@ -5967,50 +5971,50 @@
       </c>
     </row>
     <row r="77" spans="1:22" s="2" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="77"/>
-      <c r="B77" s="36">
+      <c r="A77" s="68"/>
+      <c r="B77" s="158">
         <v>3</v>
       </c>
-      <c r="C77" s="35">
+      <c r="C77" s="33">
         <v>3</v>
       </c>
-      <c r="D77" s="107">
+      <c r="D77" s="98">
         <v>9</v>
       </c>
-      <c r="E77" s="34" t="s">
+      <c r="E77" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="F77" s="33" t="s">
+      <c r="F77" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="G77" s="32">
+      <c r="G77" s="30">
         <v>106</v>
       </c>
-      <c r="H77" s="31">
+      <c r="H77" s="29">
         <v>0.5</v>
       </c>
       <c r="I77" s="8"/>
-      <c r="J77" s="30">
+      <c r="J77" s="28">
         <v>28.25</v>
       </c>
-      <c r="K77" s="42">
-        <v>1</v>
-      </c>
-      <c r="L77" s="41" t="s">
-        <v>1</v>
-      </c>
-      <c r="M77" s="29">
+      <c r="K77" s="39">
+        <v>1</v>
+      </c>
+      <c r="L77" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="M77" s="27">
         <v>29.25</v>
       </c>
       <c r="N77" s="1"/>
       <c r="O77" s="1"/>
-      <c r="P77" s="17" t="s">
+      <c r="P77" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="Q77" s="16">
+      <c r="Q77" s="15">
         <v>14.625</v>
       </c>
-      <c r="R77" s="15">
+      <c r="R77" s="14">
         <v>14.125</v>
       </c>
       <c r="S77" s="4" t="s">
@@ -6027,48 +6031,48 @@
       </c>
     </row>
     <row r="78" spans="1:22" s="2" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="77"/>
-      <c r="B78" s="25"/>
-      <c r="C78" s="24">
+      <c r="A78" s="68"/>
+      <c r="B78" s="159"/>
+      <c r="C78" s="23">
         <v>3</v>
       </c>
-      <c r="D78" s="106">
+      <c r="D78" s="97">
         <v>9</v>
       </c>
-      <c r="E78" s="23" t="s">
+      <c r="E78" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="F78" s="22" t="s">
+      <c r="F78" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="G78" s="21">
+      <c r="G78" s="20">
         <v>70</v>
       </c>
-      <c r="H78" s="20">
+      <c r="H78" s="19">
         <v>1</v>
       </c>
       <c r="I78" s="8"/>
-      <c r="J78" s="19">
+      <c r="J78" s="18">
         <v>28.25</v>
       </c>
-      <c r="K78" s="40">
-        <v>1</v>
-      </c>
-      <c r="L78" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="M78" s="18">
+      <c r="K78" s="37">
+        <v>1</v>
+      </c>
+      <c r="L78" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="M78" s="17">
         <v>29.25</v>
       </c>
       <c r="N78" s="1"/>
       <c r="O78" s="1"/>
-      <c r="P78" s="28" t="s">
+      <c r="P78" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="Q78" s="27">
+      <c r="Q78" s="25">
         <v>14.625</v>
       </c>
-      <c r="R78" s="26">
+      <c r="R78" s="24">
         <v>14.125</v>
       </c>
       <c r="S78" s="4" t="s">
@@ -6083,12 +6087,12 @@
       </c>
     </row>
     <row r="79" spans="1:22" s="2" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="77"/>
-      <c r="B79" s="14"/>
+      <c r="A79" s="68"/>
+      <c r="B79" s="160"/>
       <c r="C79" s="13">
         <v>3</v>
       </c>
-      <c r="D79" s="105">
+      <c r="D79" s="96">
         <v>9</v>
       </c>
       <c r="E79" s="12"/>
@@ -6105,10 +6109,10 @@
       <c r="J79" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="K79" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="L79" s="37" t="s">
+      <c r="K79" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="L79" s="34" t="s">
         <v>1</v>
       </c>
       <c r="M79" s="6" t="s">
@@ -6116,13 +6120,13 @@
       </c>
       <c r="N79" s="1"/>
       <c r="O79" s="1"/>
-      <c r="P79" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q79" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="R79" s="15" t="s">
+      <c r="P79" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q79" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="R79" s="14" t="s">
         <v>1</v>
       </c>
       <c r="S79" s="4" t="s">
@@ -6137,50 +6141,50 @@
       </c>
     </row>
     <row r="80" spans="1:22" s="2" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="77"/>
-      <c r="B80" s="36">
+      <c r="A80" s="68"/>
+      <c r="B80" s="158">
         <v>4</v>
       </c>
-      <c r="C80" s="35">
+      <c r="C80" s="33">
         <v>4</v>
       </c>
-      <c r="D80" s="107">
+      <c r="D80" s="98">
         <v>13</v>
       </c>
-      <c r="E80" s="34" t="s">
+      <c r="E80" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="F80" s="33" t="s">
+      <c r="F80" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="G80" s="32">
+      <c r="G80" s="30">
         <v>84</v>
       </c>
-      <c r="H80" s="31">
+      <c r="H80" s="29">
         <v>1</v>
       </c>
       <c r="I80" s="8"/>
-      <c r="J80" s="30">
+      <c r="J80" s="28">
         <v>17</v>
       </c>
-      <c r="K80" s="42">
-        <v>0</v>
-      </c>
-      <c r="L80" s="41" t="s">
-        <v>1</v>
-      </c>
-      <c r="M80" s="29">
+      <c r="K80" s="39">
+        <v>0</v>
+      </c>
+      <c r="L80" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="M80" s="27">
         <v>17</v>
       </c>
       <c r="N80" s="1"/>
       <c r="O80" s="1"/>
-      <c r="P80" s="28" t="s">
+      <c r="P80" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="Q80" s="27">
+      <c r="Q80" s="25">
         <v>8.5</v>
       </c>
-      <c r="R80" s="26" t="s">
+      <c r="R80" s="24" t="s">
         <v>1</v>
       </c>
       <c r="S80" s="4" t="s">
@@ -6197,48 +6201,48 @@
       </c>
     </row>
     <row r="81" spans="1:22" s="2" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="77"/>
-      <c r="B81" s="25"/>
-      <c r="C81" s="24">
+      <c r="A81" s="68"/>
+      <c r="B81" s="159"/>
+      <c r="C81" s="23">
         <v>4</v>
       </c>
-      <c r="D81" s="106">
+      <c r="D81" s="97">
         <v>13</v>
       </c>
-      <c r="E81" s="23" t="s">
+      <c r="E81" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="F81" s="22" t="s">
+      <c r="F81" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="G81" s="21">
+      <c r="G81" s="20">
         <v>229</v>
       </c>
-      <c r="H81" s="20">
+      <c r="H81" s="19">
         <v>0</v>
       </c>
       <c r="I81" s="8"/>
-      <c r="J81" s="19">
+      <c r="J81" s="18">
         <v>17</v>
       </c>
-      <c r="K81" s="40">
-        <v>0</v>
-      </c>
-      <c r="L81" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="M81" s="18">
+      <c r="K81" s="37">
+        <v>0</v>
+      </c>
+      <c r="L81" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="M81" s="17">
         <v>17</v>
       </c>
       <c r="N81" s="1"/>
       <c r="O81" s="1"/>
-      <c r="P81" s="17" t="s">
+      <c r="P81" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="Q81" s="16">
+      <c r="Q81" s="15">
         <v>8.5</v>
       </c>
-      <c r="R81" s="15" t="s">
+      <c r="R81" s="14" t="s">
         <v>1</v>
       </c>
       <c r="S81" s="4" t="s">
@@ -6253,12 +6257,12 @@
       </c>
     </row>
     <row r="82" spans="1:22" s="2" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="77"/>
-      <c r="B82" s="14"/>
+      <c r="A82" s="68"/>
+      <c r="B82" s="160"/>
       <c r="C82" s="13">
         <v>4</v>
       </c>
-      <c r="D82" s="105">
+      <c r="D82" s="96">
         <v>13</v>
       </c>
       <c r="E82" s="12"/>
@@ -6275,10 +6279,10 @@
       <c r="J82" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="K82" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="L82" s="37" t="s">
+      <c r="K82" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="L82" s="34" t="s">
         <v>1</v>
       </c>
       <c r="M82" s="6" t="s">
@@ -6286,13 +6290,13 @@
       </c>
       <c r="N82" s="1"/>
       <c r="O82" s="1"/>
-      <c r="P82" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q82" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="R82" s="26" t="s">
+      <c r="P82" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q82" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="R82" s="24" t="s">
         <v>1</v>
       </c>
       <c r="S82" s="4" t="s">
@@ -6307,50 +6311,50 @@
       </c>
     </row>
     <row r="83" spans="1:22" s="2" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="77"/>
-      <c r="B83" s="36">
+      <c r="A83" s="68"/>
+      <c r="B83" s="158">
         <v>5</v>
       </c>
-      <c r="C83" s="35">
+      <c r="C83" s="33">
         <v>5</v>
       </c>
-      <c r="D83" s="107">
+      <c r="D83" s="98">
         <v>17</v>
       </c>
-      <c r="E83" s="34" t="s">
+      <c r="E83" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="F83" s="33" t="s">
+      <c r="F83" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="G83" s="32" t="s">
+      <c r="G83" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="H83" s="31">
+      <c r="H83" s="29">
         <v>0</v>
       </c>
       <c r="I83" s="8"/>
-      <c r="J83" s="30">
+      <c r="J83" s="28">
         <v>11.63</v>
       </c>
-      <c r="K83" s="42">
-        <v>0</v>
-      </c>
-      <c r="L83" s="41" t="s">
-        <v>1</v>
-      </c>
-      <c r="M83" s="29">
+      <c r="K83" s="39">
+        <v>0</v>
+      </c>
+      <c r="L83" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="M83" s="27">
         <v>11.63</v>
       </c>
       <c r="N83" s="1"/>
       <c r="O83" s="1"/>
-      <c r="P83" s="17" t="s">
+      <c r="P83" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="Q83" s="16">
+      <c r="Q83" s="15">
         <v>5.8150000000000004</v>
       </c>
-      <c r="R83" s="15" t="s">
+      <c r="R83" s="14" t="s">
         <v>1</v>
       </c>
       <c r="S83" s="4" t="s">
@@ -6367,48 +6371,48 @@
       </c>
     </row>
     <row r="84" spans="1:22" s="2" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="77"/>
-      <c r="B84" s="25"/>
-      <c r="C84" s="24">
+      <c r="A84" s="68"/>
+      <c r="B84" s="159"/>
+      <c r="C84" s="23">
         <v>5</v>
       </c>
-      <c r="D84" s="106">
+      <c r="D84" s="97">
         <v>17</v>
       </c>
-      <c r="E84" s="23" t="s">
+      <c r="E84" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="F84" s="22" t="s">
+      <c r="F84" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="G84" s="21" t="s">
+      <c r="G84" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="H84" s="20">
+      <c r="H84" s="19">
         <v>0</v>
       </c>
       <c r="I84" s="8"/>
-      <c r="J84" s="19">
+      <c r="J84" s="18">
         <v>11.63</v>
       </c>
-      <c r="K84" s="40">
-        <v>0</v>
-      </c>
-      <c r="L84" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="M84" s="18">
+      <c r="K84" s="37">
+        <v>0</v>
+      </c>
+      <c r="L84" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="M84" s="17">
         <v>11.63</v>
       </c>
       <c r="N84" s="1"/>
       <c r="O84" s="1"/>
-      <c r="P84" s="28" t="s">
+      <c r="P84" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="Q84" s="27">
+      <c r="Q84" s="25">
         <v>5.8150000000000004</v>
       </c>
-      <c r="R84" s="26" t="s">
+      <c r="R84" s="24" t="s">
         <v>1</v>
       </c>
       <c r="S84" s="4" t="s">
@@ -6423,12 +6427,12 @@
       </c>
     </row>
     <row r="85" spans="1:22" s="2" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="77"/>
-      <c r="B85" s="14"/>
+      <c r="A85" s="68"/>
+      <c r="B85" s="160"/>
       <c r="C85" s="13">
         <v>5</v>
       </c>
-      <c r="D85" s="105">
+      <c r="D85" s="96">
         <v>17</v>
       </c>
       <c r="E85" s="12"/>
@@ -6445,10 +6449,10 @@
       <c r="J85" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="K85" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="L85" s="37" t="s">
+      <c r="K85" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="L85" s="34" t="s">
         <v>1</v>
       </c>
       <c r="M85" s="6" t="s">
@@ -6456,13 +6460,13 @@
       </c>
       <c r="N85" s="1"/>
       <c r="O85" s="1"/>
-      <c r="P85" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q85" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="R85" s="15" t="s">
+      <c r="P85" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q85" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="R85" s="14" t="s">
         <v>1</v>
       </c>
       <c r="S85" s="4" t="s">
@@ -6477,19 +6481,19 @@
       </c>
     </row>
     <row r="86" spans="1:22" s="2" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="77"/>
-      <c r="B86" s="104"/>
-      <c r="C86" s="104"/>
-      <c r="D86" s="104"/>
-      <c r="E86" s="104"/>
-      <c r="F86" s="103"/>
-      <c r="G86" s="83"/>
-      <c r="H86" s="82"/>
-      <c r="I86" s="102"/>
-      <c r="J86" s="81"/>
-      <c r="K86" s="81"/>
-      <c r="L86" s="101"/>
-      <c r="M86" s="100"/>
+      <c r="A86" s="68"/>
+      <c r="B86" s="95"/>
+      <c r="C86" s="95"/>
+      <c r="D86" s="95"/>
+      <c r="E86" s="95"/>
+      <c r="F86" s="94"/>
+      <c r="G86" s="74"/>
+      <c r="H86" s="73"/>
+      <c r="I86" s="93"/>
+      <c r="J86" s="72"/>
+      <c r="K86" s="72"/>
+      <c r="L86" s="92"/>
+      <c r="M86" s="91"/>
       <c r="N86" s="1"/>
       <c r="O86" s="1"/>
       <c r="P86" s="1"/>
@@ -6503,30 +6507,30 @@
       <c r="V86" s="3"/>
     </row>
     <row r="87" spans="1:22" s="2" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="77"/>
-      <c r="B87" s="76" t="s">
+      <c r="A87" s="68"/>
+      <c r="B87" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="C87" s="74"/>
-      <c r="D87" s="74"/>
-      <c r="E87" s="74"/>
-      <c r="F87" s="75" t="s">
-        <v>0</v>
-      </c>
-      <c r="G87" s="74"/>
-      <c r="H87" s="73" t="s">
+      <c r="C87" s="65"/>
+      <c r="D87" s="65"/>
+      <c r="E87" s="65"/>
+      <c r="F87" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="G87" s="65"/>
+      <c r="H87" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="I87" s="72"/>
-      <c r="J87" s="71"/>
-      <c r="K87" s="71"/>
-      <c r="L87" s="71"/>
-      <c r="M87" s="70"/>
-      <c r="N87" s="61"/>
-      <c r="O87" s="60"/>
-      <c r="P87" s="69"/>
-      <c r="Q87" s="68"/>
-      <c r="R87" s="67"/>
+      <c r="I87" s="63"/>
+      <c r="J87" s="62"/>
+      <c r="K87" s="62"/>
+      <c r="L87" s="62"/>
+      <c r="M87" s="61"/>
+      <c r="N87" s="55"/>
+      <c r="O87" s="54"/>
+      <c r="P87" s="152"/>
+      <c r="Q87" s="153"/>
+      <c r="R87" s="154"/>
       <c r="S87" s="4" t="s">
         <v>1</v>
       </c>
@@ -6535,72 +6539,72 @@
       <c r="V87" s="3"/>
     </row>
     <row r="88" spans="1:22" s="2" customFormat="1" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="77"/>
-      <c r="B88" s="95" t="s">
+      <c r="A88" s="68"/>
+      <c r="B88" s="86" t="s">
         <v>28</v>
       </c>
-      <c r="C88" s="94"/>
-      <c r="D88" s="94"/>
-      <c r="E88" s="93" t="s">
+      <c r="C88" s="85"/>
+      <c r="D88" s="85"/>
+      <c r="E88" s="84" t="s">
         <v>27</v>
       </c>
-      <c r="F88" s="92" t="s">
+      <c r="F88" s="83" t="s">
         <v>26</v>
       </c>
-      <c r="G88" s="92" t="s">
+      <c r="G88" s="83" t="s">
         <v>25</v>
       </c>
-      <c r="H88" s="91" t="s">
+      <c r="H88" s="82" t="s">
         <v>24</v>
       </c>
-      <c r="I88" s="99"/>
-      <c r="J88" s="98" t="s">
+      <c r="I88" s="90"/>
+      <c r="J88" s="89" t="s">
         <v>23</v>
       </c>
-      <c r="K88" s="97" t="s">
+      <c r="K88" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="L88" s="97" t="s">
-        <v>1</v>
-      </c>
-      <c r="M88" s="96" t="s">
+      <c r="L88" s="88" t="s">
+        <v>1</v>
+      </c>
+      <c r="M88" s="87" t="s">
         <v>21</v>
       </c>
-      <c r="N88" s="61"/>
-      <c r="O88" s="60"/>
-      <c r="P88" s="59" t="s">
+      <c r="N88" s="55"/>
+      <c r="O88" s="54"/>
+      <c r="P88" s="185" t="s">
         <v>20</v>
       </c>
-      <c r="Q88" s="58"/>
-      <c r="R88" s="57"/>
+      <c r="Q88" s="186"/>
+      <c r="R88" s="187"/>
       <c r="S88" s="4"/>
       <c r="T88" s="3"/>
       <c r="U88" s="3"/>
       <c r="V88" s="3"/>
     </row>
     <row r="89" spans="1:22" s="2" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="77"/>
-      <c r="B89" s="95"/>
-      <c r="C89" s="94"/>
-      <c r="D89" s="94"/>
-      <c r="E89" s="93"/>
-      <c r="F89" s="92"/>
-      <c r="G89" s="92"/>
-      <c r="H89" s="91"/>
-      <c r="I89" s="53"/>
-      <c r="J89" s="52"/>
-      <c r="K89" s="51"/>
-      <c r="L89" s="50"/>
-      <c r="M89" s="49"/>
+      <c r="A89" s="68"/>
+      <c r="B89" s="86"/>
+      <c r="C89" s="85"/>
+      <c r="D89" s="85"/>
+      <c r="E89" s="84"/>
+      <c r="F89" s="83"/>
+      <c r="G89" s="83"/>
+      <c r="H89" s="82"/>
+      <c r="I89" s="50"/>
+      <c r="J89" s="49"/>
+      <c r="K89" s="48"/>
+      <c r="L89" s="47"/>
+      <c r="M89" s="46"/>
       <c r="N89" s="1"/>
       <c r="O89" s="1"/>
-      <c r="P89" s="90" t="s">
+      <c r="P89" s="81" t="s">
         <v>19</v>
       </c>
-      <c r="Q89" s="89" t="s">
+      <c r="Q89" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="R89" s="88" t="s">
+      <c r="R89" s="79" t="s">
         <v>17</v>
       </c>
       <c r="S89" s="4"/>
@@ -6609,50 +6613,50 @@
       <c r="V89" s="3"/>
     </row>
     <row r="90" spans="1:22" s="2" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="77"/>
-      <c r="B90" s="36">
-        <v>1</v>
-      </c>
-      <c r="C90" s="35">
-        <v>1</v>
-      </c>
-      <c r="D90" s="35">
-        <v>0</v>
-      </c>
-      <c r="E90" s="34" t="s">
+      <c r="A90" s="68"/>
+      <c r="B90" s="158">
+        <v>1</v>
+      </c>
+      <c r="C90" s="33">
+        <v>1</v>
+      </c>
+      <c r="D90" s="33">
+        <v>0</v>
+      </c>
+      <c r="E90" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="F90" s="33" t="s">
+      <c r="F90" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="G90" s="32">
+      <c r="G90" s="30">
         <v>86</v>
       </c>
-      <c r="H90" s="31">
+      <c r="H90" s="29">
         <v>1</v>
       </c>
       <c r="I90" s="8"/>
-      <c r="J90" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="K90" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="L90" s="41" t="s">
-        <v>1</v>
-      </c>
-      <c r="M90" s="29">
+      <c r="J90" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="K90" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="L90" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="M90" s="27">
         <v>0</v>
       </c>
       <c r="N90" s="1"/>
       <c r="O90" s="1"/>
-      <c r="P90" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q90" s="44" t="s">
-        <v>1</v>
-      </c>
-      <c r="R90" s="43" t="s">
+      <c r="P90" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q90" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="R90" s="40" t="s">
         <v>1</v>
       </c>
       <c r="S90" s="4" t="s">
@@ -6669,48 +6673,48 @@
       </c>
     </row>
     <row r="91" spans="1:22" s="2" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="77"/>
-      <c r="B91" s="25"/>
-      <c r="C91" s="24">
-        <v>1</v>
-      </c>
-      <c r="D91" s="24">
-        <v>0</v>
-      </c>
-      <c r="E91" s="23" t="s">
+      <c r="A91" s="68"/>
+      <c r="B91" s="159"/>
+      <c r="C91" s="23">
+        <v>1</v>
+      </c>
+      <c r="D91" s="23">
+        <v>0</v>
+      </c>
+      <c r="E91" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="F91" s="22" t="s">
+      <c r="F91" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="G91" s="21">
+      <c r="G91" s="20">
         <v>266</v>
       </c>
-      <c r="H91" s="20">
+      <c r="H91" s="19">
         <v>0</v>
       </c>
       <c r="I91" s="8"/>
-      <c r="J91" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="K91" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="L91" s="86" t="s">
-        <v>1</v>
-      </c>
-      <c r="M91" s="18">
+      <c r="J91" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="K91" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="L91" s="77" t="s">
+        <v>1</v>
+      </c>
+      <c r="M91" s="17">
         <v>0</v>
       </c>
       <c r="N91" s="1"/>
       <c r="O91" s="1"/>
-      <c r="P91" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q91" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="R91" s="26" t="s">
+      <c r="P91" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q91" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="R91" s="24" t="s">
         <v>1</v>
       </c>
       <c r="S91" s="4" t="s">
@@ -6725,8 +6729,8 @@
       </c>
     </row>
     <row r="92" spans="1:22" s="2" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="77"/>
-      <c r="B92" s="14"/>
+      <c r="A92" s="68"/>
+      <c r="B92" s="160"/>
       <c r="C92" s="13">
         <v>1</v>
       </c>
@@ -6747,10 +6751,10 @@
       <c r="J92" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="K92" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="L92" s="85" t="s">
+      <c r="K92" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="L92" s="76" t="s">
         <v>1</v>
       </c>
       <c r="M92" s="6" t="s">
@@ -6758,13 +6762,13 @@
       </c>
       <c r="N92" s="1"/>
       <c r="O92" s="1"/>
-      <c r="P92" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q92" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="R92" s="15" t="s">
+      <c r="P92" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q92" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="R92" s="14" t="s">
         <v>1</v>
       </c>
       <c r="S92" s="4" t="s">
@@ -6779,50 +6783,50 @@
       </c>
     </row>
     <row r="93" spans="1:22" s="2" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="77"/>
-      <c r="B93" s="36">
+      <c r="A93" s="68"/>
+      <c r="B93" s="158">
         <v>2</v>
       </c>
-      <c r="C93" s="35">
+      <c r="C93" s="33">
         <v>2</v>
       </c>
-      <c r="D93" s="35">
-        <v>0</v>
-      </c>
-      <c r="E93" s="34" t="s">
+      <c r="D93" s="33">
+        <v>0</v>
+      </c>
+      <c r="E93" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="F93" s="33" t="s">
+      <c r="F93" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="G93" s="32">
+      <c r="G93" s="30">
         <v>4</v>
       </c>
-      <c r="H93" s="31">
+      <c r="H93" s="29">
         <v>10</v>
       </c>
       <c r="I93" s="8"/>
-      <c r="J93" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="K93" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="L93" s="87" t="s">
-        <v>1</v>
-      </c>
-      <c r="M93" s="29">
+      <c r="J93" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="K93" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="L93" s="78" t="s">
+        <v>1</v>
+      </c>
+      <c r="M93" s="27">
         <v>0</v>
       </c>
       <c r="N93" s="1"/>
       <c r="O93" s="1"/>
-      <c r="P93" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q93" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="R93" s="26" t="s">
+      <c r="P93" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q93" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="R93" s="24" t="s">
         <v>1</v>
       </c>
       <c r="S93" s="4" t="s">
@@ -6839,48 +6843,48 @@
       </c>
     </row>
     <row r="94" spans="1:22" s="2" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="77"/>
-      <c r="B94" s="25"/>
-      <c r="C94" s="24">
+      <c r="A94" s="68"/>
+      <c r="B94" s="159"/>
+      <c r="C94" s="23">
         <v>2</v>
       </c>
-      <c r="D94" s="24">
-        <v>0</v>
-      </c>
-      <c r="E94" s="23" t="s">
+      <c r="D94" s="23">
+        <v>0</v>
+      </c>
+      <c r="E94" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="F94" s="22" t="s">
+      <c r="F94" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="G94" s="21">
+      <c r="G94" s="20">
         <v>53</v>
       </c>
-      <c r="H94" s="20">
+      <c r="H94" s="19">
         <v>1</v>
       </c>
       <c r="I94" s="8"/>
-      <c r="J94" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="K94" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="L94" s="86" t="s">
-        <v>1</v>
-      </c>
-      <c r="M94" s="18">
+      <c r="J94" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="K94" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="L94" s="77" t="s">
+        <v>1</v>
+      </c>
+      <c r="M94" s="17">
         <v>0</v>
       </c>
       <c r="N94" s="1"/>
       <c r="O94" s="1"/>
-      <c r="P94" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q94" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="R94" s="15" t="s">
+      <c r="P94" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q94" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="R94" s="14" t="s">
         <v>1</v>
       </c>
       <c r="S94" s="4" t="s">
@@ -6895,8 +6899,8 @@
       </c>
     </row>
     <row r="95" spans="1:22" s="2" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="77"/>
-      <c r="B95" s="14"/>
+      <c r="A95" s="68"/>
+      <c r="B95" s="160"/>
       <c r="C95" s="13">
         <v>2</v>
       </c>
@@ -6917,10 +6921,10 @@
       <c r="J95" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="K95" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="L95" s="85" t="s">
+      <c r="K95" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="L95" s="76" t="s">
         <v>1</v>
       </c>
       <c r="M95" s="6" t="s">
@@ -6928,13 +6932,13 @@
       </c>
       <c r="N95" s="1"/>
       <c r="O95" s="1"/>
-      <c r="P95" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q95" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="R95" s="26" t="s">
+      <c r="P95" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q95" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="R95" s="24" t="s">
         <v>1</v>
       </c>
       <c r="S95" s="4" t="s">
@@ -6949,50 +6953,50 @@
       </c>
     </row>
     <row r="96" spans="1:22" s="2" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="77"/>
-      <c r="B96" s="36">
+      <c r="A96" s="68"/>
+      <c r="B96" s="158">
         <v>3</v>
       </c>
-      <c r="C96" s="35">
+      <c r="C96" s="33">
         <v>3</v>
       </c>
-      <c r="D96" s="35">
+      <c r="D96" s="33">
         <v>9</v>
       </c>
-      <c r="E96" s="34" t="s">
+      <c r="E96" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="F96" s="33" t="s">
+      <c r="F96" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="G96" s="32">
+      <c r="G96" s="30">
         <v>109</v>
       </c>
-      <c r="H96" s="31">
+      <c r="H96" s="29">
         <v>0.5</v>
       </c>
       <c r="I96" s="8"/>
-      <c r="J96" s="30">
+      <c r="J96" s="28">
         <v>28.25</v>
       </c>
-      <c r="K96" s="42">
+      <c r="K96" s="39">
         <v>1.5</v>
       </c>
-      <c r="L96" s="41" t="s">
-        <v>1</v>
-      </c>
-      <c r="M96" s="29">
+      <c r="L96" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="M96" s="27">
         <v>29.75</v>
       </c>
       <c r="N96" s="1"/>
       <c r="O96" s="1"/>
-      <c r="P96" s="17" t="s">
+      <c r="P96" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="Q96" s="16">
+      <c r="Q96" s="15">
         <v>14.875</v>
       </c>
-      <c r="R96" s="15" t="s">
+      <c r="R96" s="14" t="s">
         <v>1</v>
       </c>
       <c r="S96" s="4" t="s">
@@ -7009,48 +7013,48 @@
       </c>
     </row>
     <row r="97" spans="1:22" s="2" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="77"/>
-      <c r="B97" s="25"/>
-      <c r="C97" s="24">
+      <c r="A97" s="68"/>
+      <c r="B97" s="159"/>
+      <c r="C97" s="23">
         <v>3</v>
       </c>
-      <c r="D97" s="24">
+      <c r="D97" s="23">
         <v>9</v>
       </c>
-      <c r="E97" s="23" t="s">
+      <c r="E97" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="F97" s="22" t="s">
+      <c r="F97" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="G97" s="21">
+      <c r="G97" s="20">
         <v>124</v>
       </c>
-      <c r="H97" s="20">
+      <c r="H97" s="19">
         <v>0.5</v>
       </c>
       <c r="I97" s="8"/>
-      <c r="J97" s="19">
+      <c r="J97" s="18">
         <v>28.25</v>
       </c>
-      <c r="K97" s="40">
+      <c r="K97" s="37">
         <v>1.5</v>
       </c>
-      <c r="L97" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="M97" s="18">
+      <c r="L97" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="M97" s="17">
         <v>29.75</v>
       </c>
       <c r="N97" s="1"/>
       <c r="O97" s="1"/>
-      <c r="P97" s="28" t="s">
+      <c r="P97" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="Q97" s="27">
+      <c r="Q97" s="25">
         <v>14.875</v>
       </c>
-      <c r="R97" s="26" t="s">
+      <c r="R97" s="24" t="s">
         <v>1</v>
       </c>
       <c r="S97" s="4" t="s">
@@ -7065,8 +7069,8 @@
       </c>
     </row>
     <row r="98" spans="1:22" s="2" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="77"/>
-      <c r="B98" s="14"/>
+      <c r="A98" s="68"/>
+      <c r="B98" s="160"/>
       <c r="C98" s="13">
         <v>3</v>
       </c>
@@ -7087,10 +7091,10 @@
       <c r="J98" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="K98" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="L98" s="37" t="s">
+      <c r="K98" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="L98" s="34" t="s">
         <v>1</v>
       </c>
       <c r="M98" s="6" t="s">
@@ -7098,13 +7102,13 @@
       </c>
       <c r="N98" s="1"/>
       <c r="O98" s="1"/>
-      <c r="P98" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q98" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="R98" s="15" t="s">
+      <c r="P98" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q98" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="R98" s="14" t="s">
         <v>1</v>
       </c>
       <c r="S98" s="4" t="s">
@@ -7119,50 +7123,50 @@
       </c>
     </row>
     <row r="99" spans="1:22" s="2" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="77"/>
-      <c r="B99" s="36">
+      <c r="A99" s="68"/>
+      <c r="B99" s="158">
         <v>4</v>
       </c>
-      <c r="C99" s="35">
+      <c r="C99" s="33">
         <v>4</v>
       </c>
-      <c r="D99" s="35">
+      <c r="D99" s="33">
         <v>13</v>
       </c>
-      <c r="E99" s="34" t="s">
+      <c r="E99" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="F99" s="33" t="s">
+      <c r="F99" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="G99" s="32" t="s">
+      <c r="G99" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="H99" s="31">
+      <c r="H99" s="29">
         <v>0</v>
       </c>
       <c r="I99" s="8"/>
-      <c r="J99" s="30">
+      <c r="J99" s="28">
         <v>17</v>
       </c>
-      <c r="K99" s="42">
-        <v>1</v>
-      </c>
-      <c r="L99" s="41" t="s">
-        <v>1</v>
-      </c>
-      <c r="M99" s="29">
+      <c r="K99" s="39">
+        <v>1</v>
+      </c>
+      <c r="L99" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="M99" s="27">
         <v>18</v>
       </c>
       <c r="N99" s="1"/>
       <c r="O99" s="1"/>
-      <c r="P99" s="28" t="s">
+      <c r="P99" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="Q99" s="27">
+      <c r="Q99" s="25">
         <v>9</v>
       </c>
-      <c r="R99" s="26" t="s">
+      <c r="R99" s="24" t="s">
         <v>1</v>
       </c>
       <c r="S99" s="4" t="s">
@@ -7179,48 +7183,48 @@
       </c>
     </row>
     <row r="100" spans="1:22" s="2" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="77"/>
-      <c r="B100" s="25"/>
-      <c r="C100" s="24">
+      <c r="A100" s="68"/>
+      <c r="B100" s="159"/>
+      <c r="C100" s="23">
         <v>4</v>
       </c>
-      <c r="D100" s="24">
+      <c r="D100" s="23">
         <v>13</v>
       </c>
-      <c r="E100" s="23" t="s">
+      <c r="E100" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="F100" s="22" t="s">
+      <c r="F100" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="G100" s="21">
+      <c r="G100" s="20">
         <v>158</v>
       </c>
-      <c r="H100" s="20">
+      <c r="H100" s="19">
         <v>0.5</v>
       </c>
       <c r="I100" s="8"/>
-      <c r="J100" s="19">
+      <c r="J100" s="18">
         <v>17</v>
       </c>
-      <c r="K100" s="40">
-        <v>1</v>
-      </c>
-      <c r="L100" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="M100" s="18">
+      <c r="K100" s="37">
+        <v>1</v>
+      </c>
+      <c r="L100" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="M100" s="17">
         <v>18</v>
       </c>
       <c r="N100" s="1"/>
       <c r="O100" s="1"/>
-      <c r="P100" s="17" t="s">
+      <c r="P100" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="Q100" s="16">
+      <c r="Q100" s="15">
         <v>9</v>
       </c>
-      <c r="R100" s="15" t="s">
+      <c r="R100" s="14" t="s">
         <v>1</v>
       </c>
       <c r="S100" s="4" t="s">
@@ -7235,8 +7239,8 @@
       </c>
     </row>
     <row r="101" spans="1:22" s="2" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="77"/>
-      <c r="B101" s="14"/>
+      <c r="A101" s="68"/>
+      <c r="B101" s="160"/>
       <c r="C101" s="13">
         <v>4</v>
       </c>
@@ -7257,10 +7261,10 @@
       <c r="J101" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="K101" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="L101" s="37" t="s">
+      <c r="K101" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="L101" s="34" t="s">
         <v>1</v>
       </c>
       <c r="M101" s="6" t="s">
@@ -7268,13 +7272,13 @@
       </c>
       <c r="N101" s="1"/>
       <c r="O101" s="1"/>
-      <c r="P101" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q101" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="R101" s="26" t="s">
+      <c r="P101" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q101" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="R101" s="24" t="s">
         <v>1</v>
       </c>
       <c r="S101" s="4" t="s">
@@ -7289,50 +7293,50 @@
       </c>
     </row>
     <row r="102" spans="1:22" s="2" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="77"/>
-      <c r="B102" s="36">
+      <c r="A102" s="68"/>
+      <c r="B102" s="158">
         <v>5</v>
       </c>
-      <c r="C102" s="35">
+      <c r="C102" s="33">
         <v>5</v>
       </c>
-      <c r="D102" s="35">
+      <c r="D102" s="33">
         <v>17</v>
       </c>
-      <c r="E102" s="34" t="s">
+      <c r="E102" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="F102" s="33" t="s">
+      <c r="F102" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="G102" s="32">
+      <c r="G102" s="30">
         <v>57</v>
       </c>
-      <c r="H102" s="31">
+      <c r="H102" s="29">
         <v>1</v>
       </c>
       <c r="I102" s="8"/>
-      <c r="J102" s="30">
+      <c r="J102" s="28">
         <v>11.63</v>
       </c>
-      <c r="K102" s="42">
-        <v>0</v>
-      </c>
-      <c r="L102" s="41" t="s">
-        <v>1</v>
-      </c>
-      <c r="M102" s="29">
+      <c r="K102" s="39">
+        <v>0</v>
+      </c>
+      <c r="L102" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="M102" s="27">
         <v>11.63</v>
       </c>
       <c r="N102" s="1"/>
       <c r="O102" s="1"/>
-      <c r="P102" s="17" t="s">
+      <c r="P102" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="Q102" s="16">
+      <c r="Q102" s="15">
         <v>5.8150000000000004</v>
       </c>
-      <c r="R102" s="15">
+      <c r="R102" s="14">
         <v>5.8150000000000004</v>
       </c>
       <c r="S102" s="4" t="s">
@@ -7349,48 +7353,48 @@
       </c>
     </row>
     <row r="103" spans="1:22" s="2" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="77"/>
-      <c r="B103" s="25"/>
-      <c r="C103" s="24">
+      <c r="A103" s="68"/>
+      <c r="B103" s="159"/>
+      <c r="C103" s="23">
         <v>5</v>
       </c>
-      <c r="D103" s="24">
+      <c r="D103" s="23">
         <v>17</v>
       </c>
-      <c r="E103" s="23" t="s">
+      <c r="E103" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="F103" s="22" t="s">
+      <c r="F103" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="G103" s="21">
+      <c r="G103" s="20">
         <v>214</v>
       </c>
-      <c r="H103" s="20">
+      <c r="H103" s="19">
         <v>0</v>
       </c>
       <c r="I103" s="8"/>
-      <c r="J103" s="19">
+      <c r="J103" s="18">
         <v>11.63</v>
       </c>
-      <c r="K103" s="40">
-        <v>0</v>
-      </c>
-      <c r="L103" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="M103" s="18">
+      <c r="K103" s="37">
+        <v>0</v>
+      </c>
+      <c r="L103" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="M103" s="17">
         <v>11.63</v>
       </c>
       <c r="N103" s="1"/>
       <c r="O103" s="1"/>
-      <c r="P103" s="28" t="s">
+      <c r="P103" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="Q103" s="27">
+      <c r="Q103" s="25">
         <v>5.8150000000000004</v>
       </c>
-      <c r="R103" s="26">
+      <c r="R103" s="24">
         <v>5.8150000000000004</v>
       </c>
       <c r="S103" s="4" t="s">
@@ -7405,8 +7409,8 @@
       </c>
     </row>
     <row r="104" spans="1:22" s="2" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="77"/>
-      <c r="B104" s="14"/>
+      <c r="A104" s="68"/>
+      <c r="B104" s="160"/>
       <c r="C104" s="13">
         <v>5</v>
       </c>
@@ -7427,10 +7431,10 @@
       <c r="J104" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="K104" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="L104" s="37" t="s">
+      <c r="K104" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="L104" s="34" t="s">
         <v>1</v>
       </c>
       <c r="M104" s="6" t="s">
@@ -7438,13 +7442,13 @@
       </c>
       <c r="N104" s="1"/>
       <c r="O104" s="1"/>
-      <c r="P104" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q104" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="R104" s="15" t="s">
+      <c r="P104" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q104" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="R104" s="14" t="s">
         <v>1</v>
       </c>
       <c r="S104" s="4" t="s">
@@ -7460,23 +7464,23 @@
     </row>
     <row r="105" spans="1:22" s="2" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1"/>
-      <c r="B105" s="84"/>
-      <c r="C105" s="84"/>
-      <c r="D105" s="84"/>
-      <c r="E105" s="79"/>
-      <c r="F105" s="80"/>
-      <c r="G105" s="83"/>
-      <c r="H105" s="82"/>
-      <c r="I105" s="81"/>
-      <c r="J105" s="80"/>
-      <c r="K105" s="79"/>
-      <c r="L105" s="79"/>
-      <c r="M105" s="79"/>
-      <c r="N105" s="78"/>
-      <c r="O105" s="77"/>
-      <c r="P105" s="77"/>
-      <c r="Q105" s="77"/>
-      <c r="R105" s="77"/>
+      <c r="B105" s="75"/>
+      <c r="C105" s="75"/>
+      <c r="D105" s="75"/>
+      <c r="E105" s="70"/>
+      <c r="F105" s="71"/>
+      <c r="G105" s="74"/>
+      <c r="H105" s="73"/>
+      <c r="I105" s="72"/>
+      <c r="J105" s="71"/>
+      <c r="K105" s="70"/>
+      <c r="L105" s="70"/>
+      <c r="M105" s="70"/>
+      <c r="N105" s="69"/>
+      <c r="O105" s="68"/>
+      <c r="P105" s="68"/>
+      <c r="Q105" s="68"/>
+      <c r="R105" s="68"/>
       <c r="S105" s="4"/>
       <c r="T105" s="3"/>
       <c r="U105" s="3"/>
@@ -7484,29 +7488,29 @@
     </row>
     <row r="106" spans="1:22" s="2" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1"/>
-      <c r="B106" s="76" t="s">
+      <c r="B106" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="C106" s="74"/>
-      <c r="D106" s="74"/>
-      <c r="E106" s="74"/>
-      <c r="F106" s="75" t="s">
-        <v>0</v>
-      </c>
-      <c r="G106" s="74"/>
-      <c r="H106" s="73" t="s">
+      <c r="C106" s="65"/>
+      <c r="D106" s="65"/>
+      <c r="E106" s="65"/>
+      <c r="F106" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="G106" s="65"/>
+      <c r="H106" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="I106" s="72"/>
-      <c r="J106" s="71"/>
-      <c r="K106" s="71"/>
-      <c r="L106" s="71"/>
-      <c r="M106" s="70"/>
-      <c r="N106" s="61"/>
-      <c r="O106" s="60"/>
-      <c r="P106" s="69"/>
-      <c r="Q106" s="68"/>
-      <c r="R106" s="67"/>
+      <c r="I106" s="63"/>
+      <c r="J106" s="62"/>
+      <c r="K106" s="62"/>
+      <c r="L106" s="62"/>
+      <c r="M106" s="61"/>
+      <c r="N106" s="55"/>
+      <c r="O106" s="54"/>
+      <c r="P106" s="152"/>
+      <c r="Q106" s="153"/>
+      <c r="R106" s="154"/>
       <c r="S106" s="4"/>
       <c r="T106" s="3"/>
       <c r="U106" s="3"/>
@@ -7514,43 +7518,43 @@
     </row>
     <row r="107" spans="1:22" s="2" customFormat="1" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1"/>
-      <c r="B107" s="66" t="s">
+      <c r="B107" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="C107" s="66"/>
-      <c r="D107" s="66"/>
-      <c r="E107" s="65" t="s">
+      <c r="C107" s="60"/>
+      <c r="D107" s="60"/>
+      <c r="E107" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="F107" s="63" t="s">
+      <c r="F107" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="G107" s="63" t="s">
+      <c r="G107" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="H107" s="63" t="s">
+      <c r="H107" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="I107" s="64"/>
-      <c r="J107" s="63" t="s">
+      <c r="I107" s="58"/>
+      <c r="J107" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="K107" s="63" t="s">
+      <c r="K107" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="L107" s="63" t="s">
-        <v>1</v>
-      </c>
-      <c r="M107" s="62" t="s">
+      <c r="L107" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="M107" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="N107" s="61"/>
-      <c r="O107" s="60"/>
-      <c r="P107" s="59" t="s">
+      <c r="N107" s="55"/>
+      <c r="O107" s="54"/>
+      <c r="P107" s="185" t="s">
         <v>20</v>
       </c>
-      <c r="Q107" s="58"/>
-      <c r="R107" s="57"/>
+      <c r="Q107" s="186"/>
+      <c r="R107" s="187"/>
       <c r="S107" s="4"/>
       <c r="T107" s="3"/>
       <c r="U107" s="3"/>
@@ -7558,27 +7562,27 @@
     </row>
     <row r="108" spans="1:22" s="2" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1"/>
-      <c r="B108" s="52"/>
-      <c r="C108" s="56"/>
-      <c r="D108" s="56"/>
-      <c r="E108" s="55"/>
-      <c r="F108" s="51"/>
-      <c r="G108" s="51"/>
-      <c r="H108" s="54"/>
-      <c r="I108" s="53"/>
-      <c r="J108" s="52"/>
-      <c r="K108" s="51"/>
-      <c r="L108" s="50"/>
-      <c r="M108" s="49"/>
+      <c r="B108" s="49"/>
+      <c r="C108" s="53"/>
+      <c r="D108" s="53"/>
+      <c r="E108" s="52"/>
+      <c r="F108" s="48"/>
+      <c r="G108" s="48"/>
+      <c r="H108" s="51"/>
+      <c r="I108" s="50"/>
+      <c r="J108" s="49"/>
+      <c r="K108" s="48"/>
+      <c r="L108" s="47"/>
+      <c r="M108" s="46"/>
       <c r="N108" s="1"/>
       <c r="O108" s="1"/>
-      <c r="P108" s="48" t="s">
+      <c r="P108" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="Q108" s="47" t="s">
+      <c r="Q108" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="R108" s="46" t="s">
+      <c r="R108" s="43" t="s">
         <v>17</v>
       </c>
       <c r="S108" s="4"/>
@@ -7588,49 +7592,49 @@
     </row>
     <row r="109" spans="1:22" s="2" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="1"/>
-      <c r="B109" s="36">
-        <v>1</v>
-      </c>
-      <c r="C109" s="35">
-        <v>1</v>
-      </c>
-      <c r="D109" s="35">
-        <v>0</v>
-      </c>
-      <c r="E109" s="34" t="s">
+      <c r="B109" s="158">
+        <v>1</v>
+      </c>
+      <c r="C109" s="33">
+        <v>1</v>
+      </c>
+      <c r="D109" s="33">
+        <v>0</v>
+      </c>
+      <c r="E109" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="F109" s="33" t="s">
+      <c r="F109" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="G109" s="32">
+      <c r="G109" s="30">
         <v>85</v>
       </c>
-      <c r="H109" s="31">
+      <c r="H109" s="29">
         <v>1</v>
       </c>
       <c r="I109" s="8"/>
-      <c r="J109" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="K109" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="L109" s="41" t="s">
-        <v>1</v>
-      </c>
-      <c r="M109" s="29">
+      <c r="J109" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="K109" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="L109" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="M109" s="27">
         <v>0</v>
       </c>
       <c r="N109" s="1"/>
       <c r="O109" s="1"/>
-      <c r="P109" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q109" s="44" t="s">
-        <v>1</v>
-      </c>
-      <c r="R109" s="43" t="s">
+      <c r="P109" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q109" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="R109" s="40" t="s">
         <v>1</v>
       </c>
       <c r="S109" s="4" t="s">
@@ -7648,47 +7652,47 @@
     </row>
     <row r="110" spans="1:22" s="2" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="1"/>
-      <c r="B110" s="25"/>
-      <c r="C110" s="24">
-        <v>1</v>
-      </c>
-      <c r="D110" s="24">
-        <v>0</v>
-      </c>
-      <c r="E110" s="23" t="s">
+      <c r="B110" s="159"/>
+      <c r="C110" s="23">
+        <v>1</v>
+      </c>
+      <c r="D110" s="23">
+        <v>0</v>
+      </c>
+      <c r="E110" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="F110" s="22" t="s">
+      <c r="F110" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="G110" s="21">
+      <c r="G110" s="20">
         <v>58</v>
       </c>
-      <c r="H110" s="20">
+      <c r="H110" s="19">
         <v>1</v>
       </c>
       <c r="I110" s="8"/>
-      <c r="J110" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="K110" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="L110" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="M110" s="18">
+      <c r="J110" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="K110" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="L110" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="M110" s="17">
         <v>0</v>
       </c>
       <c r="N110" s="1"/>
       <c r="O110" s="1"/>
-      <c r="P110" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q110" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="R110" s="26" t="s">
+      <c r="P110" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q110" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="R110" s="24" t="s">
         <v>1</v>
       </c>
       <c r="S110" s="4" t="s">
@@ -7704,7 +7708,7 @@
     </row>
     <row r="111" spans="1:22" s="2" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1"/>
-      <c r="B111" s="14"/>
+      <c r="B111" s="160"/>
       <c r="C111" s="13">
         <v>1</v>
       </c>
@@ -7725,10 +7729,10 @@
       <c r="J111" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="K111" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="L111" s="37" t="s">
+      <c r="K111" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="L111" s="34" t="s">
         <v>1</v>
       </c>
       <c r="M111" s="6" t="s">
@@ -7736,13 +7740,13 @@
       </c>
       <c r="N111" s="1"/>
       <c r="O111" s="1"/>
-      <c r="P111" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q111" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="R111" s="15" t="s">
+      <c r="P111" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q111" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="R111" s="14" t="s">
         <v>1</v>
       </c>
       <c r="S111" s="4" t="s">
@@ -7758,49 +7762,49 @@
     </row>
     <row r="112" spans="1:22" s="2" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="1"/>
-      <c r="B112" s="36">
+      <c r="B112" s="158">
         <v>2</v>
       </c>
-      <c r="C112" s="35">
+      <c r="C112" s="33">
         <v>2</v>
       </c>
-      <c r="D112" s="35">
-        <v>0</v>
-      </c>
-      <c r="E112" s="34" t="s">
+      <c r="D112" s="33">
+        <v>0</v>
+      </c>
+      <c r="E112" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="F112" s="33" t="s">
+      <c r="F112" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="G112" s="32">
+      <c r="G112" s="30">
         <v>13</v>
       </c>
-      <c r="H112" s="31">
+      <c r="H112" s="29">
         <v>5</v>
       </c>
       <c r="I112" s="8"/>
-      <c r="J112" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="K112" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="L112" s="41" t="s">
-        <v>1</v>
-      </c>
-      <c r="M112" s="29">
+      <c r="J112" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="K112" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="L112" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="M112" s="27">
         <v>0</v>
       </c>
       <c r="N112" s="1"/>
       <c r="O112" s="1"/>
-      <c r="P112" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q112" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="R112" s="26" t="s">
+      <c r="P112" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q112" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="R112" s="24" t="s">
         <v>1</v>
       </c>
       <c r="S112" s="4" t="s">
@@ -7818,47 +7822,47 @@
     </row>
     <row r="113" spans="1:22" s="2" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="1"/>
-      <c r="B113" s="25"/>
-      <c r="C113" s="24">
+      <c r="B113" s="159"/>
+      <c r="C113" s="23">
         <v>2</v>
       </c>
-      <c r="D113" s="24">
-        <v>0</v>
-      </c>
-      <c r="E113" s="23" t="s">
+      <c r="D113" s="23">
+        <v>0</v>
+      </c>
+      <c r="E113" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F113" s="22" t="s">
+      <c r="F113" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="G113" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="H113" s="20" t="s">
+      <c r="G113" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="H113" s="19" t="s">
         <v>1</v>
       </c>
       <c r="I113" s="8"/>
-      <c r="J113" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="K113" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="L113" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="M113" s="18">
+      <c r="J113" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="K113" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="L113" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="M113" s="17">
         <v>0</v>
       </c>
       <c r="N113" s="1"/>
       <c r="O113" s="1"/>
-      <c r="P113" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q113" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="R113" s="15" t="s">
+      <c r="P113" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q113" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="R113" s="14" t="s">
         <v>1</v>
       </c>
       <c r="S113" s="4" t="s">
@@ -7874,7 +7878,7 @@
     </row>
     <row r="114" spans="1:22" s="2" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1"/>
-      <c r="B114" s="14"/>
+      <c r="B114" s="160"/>
       <c r="C114" s="13">
         <v>2</v>
       </c>
@@ -7895,10 +7899,10 @@
       <c r="J114" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="K114" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="L114" s="37" t="s">
+      <c r="K114" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="L114" s="34" t="s">
         <v>1</v>
       </c>
       <c r="M114" s="6" t="s">
@@ -7906,13 +7910,13 @@
       </c>
       <c r="N114" s="1"/>
       <c r="O114" s="1"/>
-      <c r="P114" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q114" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="R114" s="26" t="s">
+      <c r="P114" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q114" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="R114" s="24" t="s">
         <v>1</v>
       </c>
       <c r="S114" s="4" t="s">
@@ -7928,49 +7932,49 @@
     </row>
     <row r="115" spans="1:22" s="2" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="1"/>
-      <c r="B115" s="36">
+      <c r="B115" s="158">
         <v>3</v>
       </c>
-      <c r="C115" s="35">
+      <c r="C115" s="33">
         <v>3</v>
       </c>
-      <c r="D115" s="35">
+      <c r="D115" s="33">
         <v>9</v>
       </c>
-      <c r="E115" s="34" t="s">
+      <c r="E115" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="F115" s="33" t="s">
+      <c r="F115" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="G115" s="32">
+      <c r="G115" s="30">
         <v>104</v>
       </c>
-      <c r="H115" s="31">
+      <c r="H115" s="29">
         <v>0.5</v>
       </c>
       <c r="I115" s="8"/>
-      <c r="J115" s="30">
+      <c r="J115" s="28">
         <v>28.25</v>
       </c>
-      <c r="K115" s="42">
+      <c r="K115" s="39">
         <v>1.5</v>
       </c>
-      <c r="L115" s="41" t="s">
-        <v>1</v>
-      </c>
-      <c r="M115" s="29">
+      <c r="L115" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="M115" s="27">
         <v>29.75</v>
       </c>
       <c r="N115" s="1"/>
       <c r="O115" s="1"/>
-      <c r="P115" s="17" t="s">
+      <c r="P115" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="Q115" s="16">
+      <c r="Q115" s="15">
         <v>14.875</v>
       </c>
-      <c r="R115" s="15" t="s">
+      <c r="R115" s="14" t="s">
         <v>1</v>
       </c>
       <c r="S115" s="4" t="s">
@@ -7988,47 +7992,47 @@
     </row>
     <row r="116" spans="1:22" s="2" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="1"/>
-      <c r="B116" s="25"/>
-      <c r="C116" s="24">
+      <c r="B116" s="159"/>
+      <c r="C116" s="23">
         <v>3</v>
       </c>
-      <c r="D116" s="24">
+      <c r="D116" s="23">
         <v>9</v>
       </c>
-      <c r="E116" s="23" t="s">
+      <c r="E116" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="F116" s="22" t="s">
+      <c r="F116" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="G116" s="21">
+      <c r="G116" s="20">
         <v>161</v>
       </c>
-      <c r="H116" s="20">
+      <c r="H116" s="19">
         <v>0.5</v>
       </c>
       <c r="I116" s="8"/>
-      <c r="J116" s="19">
+      <c r="J116" s="18">
         <v>28.25</v>
       </c>
-      <c r="K116" s="40">
-        <v>0</v>
-      </c>
-      <c r="L116" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="M116" s="18">
+      <c r="K116" s="37">
+        <v>0</v>
+      </c>
+      <c r="L116" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="M116" s="17">
         <v>28.25</v>
       </c>
       <c r="N116" s="1"/>
       <c r="O116" s="1"/>
-      <c r="P116" s="28" t="s">
+      <c r="P116" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="Q116" s="27">
+      <c r="Q116" s="25">
         <v>14.125</v>
       </c>
-      <c r="R116" s="26" t="s">
+      <c r="R116" s="24" t="s">
         <v>1</v>
       </c>
       <c r="S116" s="4" t="s">
@@ -8044,7 +8048,7 @@
     </row>
     <row r="117" spans="1:22" s="2" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1"/>
-      <c r="B117" s="14"/>
+      <c r="B117" s="160"/>
       <c r="C117" s="13">
         <v>3</v>
       </c>
@@ -8065,10 +8069,10 @@
       <c r="J117" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="K117" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="L117" s="37" t="s">
+      <c r="K117" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="L117" s="34" t="s">
         <v>1</v>
       </c>
       <c r="M117" s="6" t="s">
@@ -8076,13 +8080,13 @@
       </c>
       <c r="N117" s="1"/>
       <c r="O117" s="1"/>
-      <c r="P117" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q117" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="R117" s="15" t="s">
+      <c r="P117" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q117" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="R117" s="14" t="s">
         <v>1</v>
       </c>
       <c r="S117" s="4" t="s">
@@ -8098,49 +8102,49 @@
     </row>
     <row r="118" spans="1:22" s="2" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="1"/>
-      <c r="B118" s="36">
+      <c r="B118" s="158">
         <v>4</v>
       </c>
-      <c r="C118" s="35">
+      <c r="C118" s="33">
         <v>4</v>
       </c>
-      <c r="D118" s="35">
+      <c r="D118" s="33">
         <v>13</v>
       </c>
-      <c r="E118" s="34" t="s">
+      <c r="E118" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="F118" s="33" t="s">
+      <c r="F118" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="G118" s="32">
+      <c r="G118" s="30">
         <v>129</v>
       </c>
-      <c r="H118" s="31">
+      <c r="H118" s="29">
         <v>0.5</v>
       </c>
       <c r="I118" s="8"/>
-      <c r="J118" s="30">
+      <c r="J118" s="28">
         <v>17</v>
       </c>
-      <c r="K118" s="42">
-        <v>1</v>
-      </c>
-      <c r="L118" s="41" t="s">
-        <v>1</v>
-      </c>
-      <c r="M118" s="29">
+      <c r="K118" s="39">
+        <v>1</v>
+      </c>
+      <c r="L118" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="M118" s="27">
         <v>18</v>
       </c>
       <c r="N118" s="1"/>
       <c r="O118" s="1"/>
-      <c r="P118" s="28" t="s">
+      <c r="P118" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="Q118" s="27">
+      <c r="Q118" s="25">
         <v>9</v>
       </c>
-      <c r="R118" s="26" t="s">
+      <c r="R118" s="24" t="s">
         <v>1</v>
       </c>
       <c r="S118" s="4" t="s">
@@ -8158,47 +8162,47 @@
     </row>
     <row r="119" spans="1:22" s="2" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="1"/>
-      <c r="B119" s="25"/>
-      <c r="C119" s="24">
+      <c r="B119" s="159"/>
+      <c r="C119" s="23">
         <v>4</v>
       </c>
-      <c r="D119" s="24">
+      <c r="D119" s="23">
         <v>13</v>
       </c>
-      <c r="E119" s="23" t="s">
+      <c r="E119" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="F119" s="22" t="s">
+      <c r="F119" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="G119" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="H119" s="20" t="s">
+      <c r="G119" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="H119" s="19" t="s">
         <v>1</v>
       </c>
       <c r="I119" s="8"/>
-      <c r="J119" s="19">
+      <c r="J119" s="18">
         <v>17</v>
       </c>
-      <c r="K119" s="40">
-        <v>0</v>
-      </c>
-      <c r="L119" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="M119" s="18">
+      <c r="K119" s="37">
+        <v>0</v>
+      </c>
+      <c r="L119" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="M119" s="17">
         <v>17</v>
       </c>
       <c r="N119" s="1"/>
       <c r="O119" s="1"/>
-      <c r="P119" s="17" t="s">
+      <c r="P119" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="Q119" s="16">
+      <c r="Q119" s="15">
         <v>8.5</v>
       </c>
-      <c r="R119" s="15" t="s">
+      <c r="R119" s="14" t="s">
         <v>1</v>
       </c>
       <c r="S119" s="4" t="s">
@@ -8214,7 +8218,7 @@
     </row>
     <row r="120" spans="1:22" s="2" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1"/>
-      <c r="B120" s="14"/>
+      <c r="B120" s="160"/>
       <c r="C120" s="13">
         <v>4</v>
       </c>
@@ -8235,10 +8239,10 @@
       <c r="J120" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="K120" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="L120" s="37" t="s">
+      <c r="K120" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="L120" s="34" t="s">
         <v>1</v>
       </c>
       <c r="M120" s="6" t="s">
@@ -8246,13 +8250,13 @@
       </c>
       <c r="N120" s="1"/>
       <c r="O120" s="1"/>
-      <c r="P120" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q120" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="R120" s="26" t="s">
+      <c r="P120" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q120" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="R120" s="24" t="s">
         <v>1</v>
       </c>
       <c r="S120" s="4" t="s">
@@ -8268,49 +8272,49 @@
     </row>
     <row r="121" spans="1:22" s="2" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="1"/>
-      <c r="B121" s="36">
+      <c r="B121" s="158">
         <v>5</v>
       </c>
-      <c r="C121" s="35">
+      <c r="C121" s="33">
         <v>5</v>
       </c>
-      <c r="D121" s="35">
+      <c r="D121" s="33">
         <v>17</v>
       </c>
-      <c r="E121" s="34" t="s">
+      <c r="E121" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="F121" s="33" t="s">
+      <c r="F121" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="G121" s="32">
+      <c r="G121" s="30">
         <v>224</v>
       </c>
-      <c r="H121" s="31">
+      <c r="H121" s="29">
         <v>0</v>
       </c>
       <c r="I121" s="8"/>
-      <c r="J121" s="30">
+      <c r="J121" s="28">
         <v>11.63</v>
       </c>
-      <c r="K121" s="42">
+      <c r="K121" s="39">
         <v>0.5</v>
       </c>
-      <c r="L121" s="41" t="s">
-        <v>1</v>
-      </c>
-      <c r="M121" s="29">
+      <c r="L121" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="M121" s="27">
         <v>12.13</v>
       </c>
       <c r="N121" s="1"/>
       <c r="O121" s="1"/>
-      <c r="P121" s="17" t="s">
+      <c r="P121" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="Q121" s="16">
+      <c r="Q121" s="15">
         <v>6.0650000000000004</v>
       </c>
-      <c r="R121" s="15" t="s">
+      <c r="R121" s="14" t="s">
         <v>1</v>
       </c>
       <c r="S121" s="4" t="s">
@@ -8328,47 +8332,47 @@
     </row>
     <row r="122" spans="1:22" s="2" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="1"/>
-      <c r="B122" s="25"/>
-      <c r="C122" s="24">
+      <c r="B122" s="159"/>
+      <c r="C122" s="23">
         <v>5</v>
       </c>
-      <c r="D122" s="24">
+      <c r="D122" s="23">
         <v>17</v>
       </c>
-      <c r="E122" s="23" t="s">
+      <c r="E122" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="F122" s="22" t="s">
+      <c r="F122" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="G122" s="21">
+      <c r="G122" s="20">
         <v>148</v>
       </c>
-      <c r="H122" s="20">
+      <c r="H122" s="19">
         <v>0.5</v>
       </c>
       <c r="I122" s="8"/>
-      <c r="J122" s="19">
+      <c r="J122" s="18">
         <v>11.63</v>
       </c>
-      <c r="K122" s="40">
-        <v>0</v>
-      </c>
-      <c r="L122" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="M122" s="18">
+      <c r="K122" s="37">
+        <v>0</v>
+      </c>
+      <c r="L122" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="M122" s="17">
         <v>11.63</v>
       </c>
       <c r="N122" s="1"/>
       <c r="O122" s="1"/>
-      <c r="P122" s="28" t="s">
+      <c r="P122" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="Q122" s="27">
+      <c r="Q122" s="25">
         <v>5.8150000000000004</v>
       </c>
-      <c r="R122" s="26" t="s">
+      <c r="R122" s="24" t="s">
         <v>1</v>
       </c>
       <c r="S122" s="4" t="s">
@@ -8384,7 +8388,7 @@
     </row>
     <row r="123" spans="1:22" s="2" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1"/>
-      <c r="B123" s="14"/>
+      <c r="B123" s="160"/>
       <c r="C123" s="13">
         <v>5</v>
       </c>
@@ -8405,10 +8409,10 @@
       <c r="J123" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="K123" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="L123" s="37" t="s">
+      <c r="K123" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="L123" s="34" t="s">
         <v>1</v>
       </c>
       <c r="M123" s="6" t="s">
@@ -8416,13 +8420,13 @@
       </c>
       <c r="N123" s="1"/>
       <c r="O123" s="1"/>
-      <c r="P123" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q123" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="R123" s="15" t="s">
+      <c r="P123" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q123" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="R123" s="14" t="s">
         <v>1</v>
       </c>
       <c r="S123" s="4" t="s">
@@ -8438,49 +8442,49 @@
     </row>
     <row r="124" spans="1:22" s="2" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="1"/>
-      <c r="B124" s="36">
+      <c r="B124" s="158">
         <v>6</v>
       </c>
-      <c r="C124" s="35">
+      <c r="C124" s="33">
         <v>6</v>
       </c>
-      <c r="D124" s="35">
+      <c r="D124" s="33">
         <v>21</v>
       </c>
-      <c r="E124" s="34" t="s">
+      <c r="E124" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="F124" s="33" t="s">
+      <c r="F124" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="G124" s="32">
+      <c r="G124" s="30">
         <v>197</v>
       </c>
-      <c r="H124" s="31">
+      <c r="H124" s="29">
         <v>0.5</v>
       </c>
       <c r="I124" s="8"/>
-      <c r="J124" s="30">
+      <c r="J124" s="28">
         <v>9.75</v>
       </c>
-      <c r="K124" s="42">
-        <v>0</v>
-      </c>
-      <c r="L124" s="41" t="s">
-        <v>1</v>
-      </c>
-      <c r="M124" s="29">
+      <c r="K124" s="39">
+        <v>0</v>
+      </c>
+      <c r="L124" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="M124" s="27">
         <v>9.75</v>
       </c>
       <c r="N124" s="1"/>
       <c r="O124" s="1"/>
-      <c r="P124" s="28" t="s">
+      <c r="P124" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="Q124" s="27">
+      <c r="Q124" s="25">
         <v>4.875</v>
       </c>
-      <c r="R124" s="26" t="s">
+      <c r="R124" s="24" t="s">
         <v>1</v>
       </c>
       <c r="S124" s="4" t="s">
@@ -8498,47 +8502,47 @@
     </row>
     <row r="125" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A125" s="1"/>
-      <c r="B125" s="25"/>
-      <c r="C125" s="24">
+      <c r="B125" s="159"/>
+      <c r="C125" s="23">
         <v>6</v>
       </c>
-      <c r="D125" s="24">
+      <c r="D125" s="23">
         <v>21</v>
       </c>
-      <c r="E125" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="F125" s="22" t="s">
+      <c r="E125" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="F125" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="G125" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="H125" s="20" t="s">
+      <c r="G125" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="H125" s="19" t="s">
         <v>1</v>
       </c>
       <c r="I125" s="8"/>
-      <c r="J125" s="19">
+      <c r="J125" s="18">
         <v>9.75</v>
       </c>
-      <c r="K125" s="40">
-        <v>0</v>
-      </c>
-      <c r="L125" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="M125" s="18">
+      <c r="K125" s="37">
+        <v>0</v>
+      </c>
+      <c r="L125" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="M125" s="17">
         <v>9.75</v>
       </c>
       <c r="N125" s="1"/>
       <c r="O125" s="1"/>
-      <c r="P125" s="17" t="s">
+      <c r="P125" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="Q125" s="16">
+      <c r="Q125" s="15">
         <v>4.875</v>
       </c>
-      <c r="R125" s="15" t="s">
+      <c r="R125" s="14" t="s">
         <v>1</v>
       </c>
       <c r="S125" s="4" t="s">
@@ -8554,7 +8558,7 @@
     </row>
     <row r="126" spans="1:22" s="2" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1"/>
-      <c r="B126" s="14"/>
+      <c r="B126" s="160"/>
       <c r="C126" s="13">
         <v>6</v>
       </c>
@@ -8575,10 +8579,10 @@
       <c r="J126" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="K126" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="L126" s="37" t="s">
+      <c r="K126" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="L126" s="34" t="s">
         <v>1</v>
       </c>
       <c r="M126" s="6" t="s">
@@ -8586,13 +8590,13 @@
       </c>
       <c r="N126" s="1"/>
       <c r="O126" s="1"/>
-      <c r="P126" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q126" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="R126" s="26" t="s">
+      <c r="P126" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q126" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="R126" s="24" t="s">
         <v>1</v>
       </c>
       <c r="S126" s="4" t="s">
@@ -8608,38 +8612,32 @@
     </row>
   </sheetData>
   <mergeCells count="65">
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="I4:M4"/>
-    <mergeCell ref="I5:M5"/>
-    <mergeCell ref="I6:M6"/>
-    <mergeCell ref="I7:M7"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="I11:M11"/>
-    <mergeCell ref="I12:M12"/>
-    <mergeCell ref="B13:H13"/>
-    <mergeCell ref="I13:M13"/>
-    <mergeCell ref="P15:R15"/>
-    <mergeCell ref="P16:R16"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="P43:R43"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="H44:H47"/>
-    <mergeCell ref="J44:J47"/>
-    <mergeCell ref="K44:K47"/>
-    <mergeCell ref="L44:L47"/>
-    <mergeCell ref="M44:M47"/>
+    <mergeCell ref="B124:B126"/>
+    <mergeCell ref="B109:B111"/>
+    <mergeCell ref="B112:B114"/>
+    <mergeCell ref="B115:B117"/>
+    <mergeCell ref="B118:B120"/>
+    <mergeCell ref="B121:B123"/>
+    <mergeCell ref="B96:B98"/>
+    <mergeCell ref="B99:B101"/>
+    <mergeCell ref="B102:B104"/>
+    <mergeCell ref="P106:R106"/>
+    <mergeCell ref="P107:R107"/>
+    <mergeCell ref="B83:B85"/>
+    <mergeCell ref="P87:R87"/>
+    <mergeCell ref="P88:R88"/>
+    <mergeCell ref="B90:B92"/>
+    <mergeCell ref="B93:B95"/>
+    <mergeCell ref="P69:R69"/>
+    <mergeCell ref="B71:B73"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B77:B79"/>
+    <mergeCell ref="B80:B82"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="P68:R68"/>
     <mergeCell ref="P44:R47"/>
     <mergeCell ref="B49:B51"/>
     <mergeCell ref="B52:B54"/>
@@ -8647,32 +8645,38 @@
     <mergeCell ref="E44:E47"/>
     <mergeCell ref="F44:F47"/>
     <mergeCell ref="G44:G47"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="B58:B60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="P68:R68"/>
-    <mergeCell ref="P69:R69"/>
-    <mergeCell ref="B71:B73"/>
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="B77:B79"/>
-    <mergeCell ref="B80:B82"/>
-    <mergeCell ref="B83:B85"/>
-    <mergeCell ref="P87:R87"/>
-    <mergeCell ref="P88:R88"/>
-    <mergeCell ref="B90:B92"/>
-    <mergeCell ref="B93:B95"/>
-    <mergeCell ref="B96:B98"/>
-    <mergeCell ref="B99:B101"/>
-    <mergeCell ref="B102:B104"/>
-    <mergeCell ref="P106:R106"/>
-    <mergeCell ref="P107:R107"/>
-    <mergeCell ref="B109:B111"/>
-    <mergeCell ref="B112:B114"/>
-    <mergeCell ref="B115:B117"/>
-    <mergeCell ref="B118:B120"/>
-    <mergeCell ref="B121:B123"/>
-    <mergeCell ref="B124:B126"/>
+    <mergeCell ref="H44:H47"/>
+    <mergeCell ref="J44:J47"/>
+    <mergeCell ref="K44:K47"/>
+    <mergeCell ref="L44:L47"/>
+    <mergeCell ref="M44:M47"/>
+    <mergeCell ref="P43:R43"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="P15:R15"/>
+    <mergeCell ref="P16:R16"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="I11:M11"/>
+    <mergeCell ref="I12:M12"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="I13:M13"/>
+    <mergeCell ref="I7:M7"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="I4:M4"/>
+    <mergeCell ref="I5:M5"/>
+    <mergeCell ref="I6:M6"/>
   </mergeCells>
   <conditionalFormatting sqref="P18:R41 P49:R66 P71:R85 P90:R104 P109:R126">
     <cfRule type="expression" dxfId="0" priority="1">
@@ -8680,34 +8684,34 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="10">
-    <dataValidation type="list" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="H15">
+    <dataValidation type="list" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="H15" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>Pools</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showDropDown="1" sqref="F15">
+    <dataValidation type="list" allowBlank="1" showDropDown="1" sqref="F15" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>Rounds</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="New Player or Error" error="This Player is not in the Rankings or you just made an typing error. Please correct your error, or add the player to the rankings list!" sqref="E109:E126 E49:E66 E71:E85 E90:E104 E18:E41">
+    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="New Player or Error" error="This Player is not in the Rankings or you just made an typing error. Please correct your error, or add the player to the rankings list!" sqref="E109:E126 E49:E66 E71:E85 E90:E104 E18:E41" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>players_sorted2</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I10:M10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I10:M10" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>Other_Divisions</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B15:D15 B43:D43 B68:D68 B87:D87 B106:D106">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B15:D15 B43:D43 B68:D68 B87:D87 B106:D106" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>All_Divisions</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I9:M9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I9:M9" xr:uid="{00000000-0002-0000-0000-000005000000}">
       <formula1>Women_Divisions</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I8:M8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I8:M8" xr:uid="{00000000-0002-0000-0000-000006000000}">
       <formula1>Open_Divisions</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H106 I43:I46 H43 H68:I68 I87:I88 H87 I106:I107 I15">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H106 I43:I46 H43 H68:I68 I87:I88 H87 I106:I107 I15" xr:uid="{00000000-0002-0000-0000-000007000000}">
       <formula1>Pools</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="F106 F43 F68 F87">
+    <dataValidation type="list" allowBlank="1" sqref="F106 F43 F68 F87" xr:uid="{00000000-0002-0000-0000-000008000000}">
       <formula1>Rounds</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" promptTitle="Choose Category" sqref="I7:M7">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" promptTitle="Choose Category" sqref="I7:M7" xr:uid="{00000000-0002-0000-0000-000009000000}">
       <formula1>Categories</formula1>
     </dataValidation>
   </dataValidations>
